--- a/输出/区经区助扣罚免除.xlsx
+++ b/输出/区经区助扣罚免除.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>城市经理</t>
   </si>
@@ -47,30 +47,24 @@
     <t>云南大区</t>
   </si>
   <si>
-    <t>03100149</t>
-  </si>
-  <si>
-    <t>车静</t>
+    <t>04070012</t>
+  </si>
+  <si>
+    <t>邓果</t>
+  </si>
+  <si>
+    <t>免扣</t>
+  </si>
+  <si>
+    <t>12190064</t>
+  </si>
+  <si>
+    <t>兰世虎</t>
   </si>
   <si>
     <t>扣罚</t>
   </si>
   <si>
-    <t>04070012</t>
-  </si>
-  <si>
-    <t>邓果</t>
-  </si>
-  <si>
-    <t>12190064</t>
-  </si>
-  <si>
-    <t>兰世虎</t>
-  </si>
-  <si>
-    <t>免扣</t>
-  </si>
-  <si>
     <t>13170021</t>
   </si>
   <si>
@@ -122,33 +116,6 @@
     <t>杨智强</t>
   </si>
   <si>
-    <t>四川大区</t>
-  </si>
-  <si>
-    <t>03250032</t>
-  </si>
-  <si>
-    <t>陈宇</t>
-  </si>
-  <si>
-    <t>12240395</t>
-  </si>
-  <si>
-    <t>林旭</t>
-  </si>
-  <si>
-    <t>25160021</t>
-  </si>
-  <si>
-    <t>杨平</t>
-  </si>
-  <si>
-    <t>26110029</t>
-  </si>
-  <si>
-    <t>郑凯溪</t>
-  </si>
-  <si>
     <t>新疆大区</t>
   </si>
   <si>
@@ -230,18 +197,6 @@
     <t>黄巧</t>
   </si>
   <si>
-    <t>08190022</t>
-  </si>
-  <si>
-    <t>韩世曾</t>
-  </si>
-  <si>
-    <t>08200001</t>
-  </si>
-  <si>
-    <t>何天浩</t>
-  </si>
-  <si>
     <t>08260079</t>
   </si>
   <si>
@@ -512,12 +467,6 @@
     <t>甘善泽</t>
   </si>
   <si>
-    <t>08250212</t>
-  </si>
-  <si>
-    <t>侯扬帆</t>
-  </si>
-  <si>
     <t>12100481</t>
   </si>
   <si>
@@ -530,12 +479,6 @@
     <t>林应帅</t>
   </si>
   <si>
-    <t>19250049</t>
-  </si>
-  <si>
-    <t>尚亦乐</t>
-  </si>
-  <si>
     <t>23170073</t>
   </si>
   <si>
@@ -548,12 +491,6 @@
     <t>王婉莉</t>
   </si>
   <si>
-    <t>24030027</t>
-  </si>
-  <si>
-    <t>肖朝健</t>
-  </si>
-  <si>
     <t>26060058</t>
   </si>
   <si>
@@ -602,12 +539,6 @@
     <t>马艾布</t>
   </si>
   <si>
-    <t>13120028</t>
-  </si>
-  <si>
-    <t>马琳</t>
-  </si>
-  <si>
     <t>18020001</t>
   </si>
   <si>
@@ -620,12 +551,6 @@
     <t>盛玬玛</t>
   </si>
   <si>
-    <t>25190046</t>
-  </si>
-  <si>
-    <t>杨树旺</t>
-  </si>
-  <si>
     <t>26120068</t>
   </si>
   <si>
@@ -653,12 +578,6 @@
     <t>鲍星</t>
   </si>
   <si>
-    <t>02250027</t>
-  </si>
-  <si>
-    <t>白永龙</t>
-  </si>
-  <si>
     <t>03030001</t>
   </si>
   <si>
@@ -707,12 +626,6 @@
     <t>郭长进</t>
   </si>
   <si>
-    <t>11240002</t>
-  </si>
-  <si>
-    <t>孔祥园</t>
-  </si>
-  <si>
     <t>12130020</t>
   </si>
   <si>
@@ -773,12 +686,6 @@
     <t>伍晶</t>
   </si>
   <si>
-    <t>23110010</t>
-  </si>
-  <si>
-    <t>王开金</t>
-  </si>
-  <si>
     <t>23250401</t>
   </si>
   <si>
@@ -809,24 +716,12 @@
     <t>犹敦信</t>
   </si>
   <si>
-    <t>25120040</t>
-  </si>
-  <si>
-    <t>杨玲</t>
-  </si>
-  <si>
     <t>25120103</t>
   </si>
   <si>
     <t>杨龙</t>
   </si>
   <si>
-    <t>25120119</t>
-  </si>
-  <si>
-    <t>余磊</t>
-  </si>
-  <si>
     <t>25190009</t>
   </si>
   <si>
@@ -845,6 +740,12 @@
     <t>朱达松</t>
   </si>
   <si>
+    <t>26100036</t>
+  </si>
+  <si>
+    <t>邹杰</t>
+  </si>
+  <si>
     <t>26170011</t>
   </si>
   <si>
@@ -878,33 +779,6 @@
     <t>林雅琼</t>
   </si>
   <si>
-    <t>13010001</t>
-  </si>
-  <si>
-    <t>马安莹</t>
-  </si>
-  <si>
-    <t>17250011</t>
-  </si>
-  <si>
-    <t>秦云龙</t>
-  </si>
-  <si>
-    <t>青海大区</t>
-  </si>
-  <si>
-    <t>03080058</t>
-  </si>
-  <si>
-    <t>曹宏博</t>
-  </si>
-  <si>
-    <t>13080006</t>
-  </si>
-  <si>
-    <t>马慧琳</t>
-  </si>
-  <si>
     <t>黑龙江大区</t>
   </si>
   <si>
@@ -920,12 +794,6 @@
     <t>吕龙</t>
   </si>
   <si>
-    <t>19170032</t>
-  </si>
-  <si>
-    <t>石青云</t>
-  </si>
-  <si>
     <t>19230046</t>
   </si>
   <si>
@@ -936,6 +804,12 @@
   </si>
   <si>
     <t>王嘉雷</t>
+  </si>
+  <si>
+    <t>23240311</t>
+  </si>
+  <si>
+    <t>王小丽</t>
   </si>
   <si>
     <t>25110055</t>
@@ -1308,7 +1182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1359,19 +1233,19 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -1394,19 +1268,19 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03763440860215054</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1417,28 +1291,28 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1458,19 +1332,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01265822784810127</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1487,22 +1361,22 @@
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02884615384615385</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1519,22 +1393,22 @@
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03478260869565217</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1551,22 +1425,22 @@
         <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0364963503649635</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1574,31 +1448,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04310344827586207</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1606,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1615,13 +1489,13 @@
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03053435114503817</v>
+        <v>0.0176678445229682</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1630,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1638,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -1647,13 +1521,13 @@
         <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>344</v>
+        <v>141</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02906976744186046</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1662,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1670,28 +1544,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>145</v>
+        <v>425</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04137931034482759</v>
+        <v>0.04470588235294118</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -1702,7 +1576,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1711,22 +1585,22 @@
         <v>37</v>
       </c>
       <c r="E13" t="n">
+        <v>14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>452</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03097345132743363</v>
+      </c>
+      <c r="H13" t="n">
         <v>11</v>
       </c>
-      <c r="F13" t="n">
-        <v>265</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.04150943396226415</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1734,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1743,22 +1617,22 @@
         <v>39</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05670103092783505</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1766,7 +1640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -1775,22 +1649,22 @@
         <v>41</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1798,7 +1672,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -1807,22 +1681,22 @@
         <v>43</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03968253968253968</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1830,31 +1704,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03546099290780142</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I17" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1862,31 +1736,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="n">
+        <v>50</v>
+      </c>
+      <c r="F18" t="n">
+        <v>784</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.06377551020408163</v>
+      </c>
+      <c r="H18" t="n">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="n">
-        <v>21</v>
-      </c>
-      <c r="F18" t="n">
-        <v>570</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.03684210526315789</v>
-      </c>
-      <c r="H18" t="n">
-        <v>24</v>
-      </c>
       <c r="I18" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1894,31 +1768,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.07067137809187279</v>
       </c>
       <c r="H19" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1926,31 +1800,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>229</v>
+        <v>530</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04366812227074236</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="H20" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1958,31 +1832,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02150537634408602</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1990,28 +1864,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" t="n">
-        <v>193</v>
+        <v>461</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08808290155440414</v>
+        <v>0.03904555314533623</v>
       </c>
       <c r="H22" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I22" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -2022,28 +1896,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
       <c r="E23" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06582278481012659</v>
+        <v>0.03088803088803089</v>
       </c>
       <c r="H23" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -2054,31 +1928,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>430</v>
+        <v>276</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03488372093023256</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2086,31 +1960,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
       <c r="E25" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>569</v>
+        <v>240</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04569420035149385</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2118,31 +1992,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.04564315352697095</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I26" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2150,31 +2024,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
         <v>65</v>
       </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>428</v>
+        <v>159</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0397196261682243</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="H27" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I27" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2182,31 +2056,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
         <v>67</v>
       </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03669724770642202</v>
+        <v>0.033003300330033</v>
       </c>
       <c r="H28" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I28" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2214,31 +2088,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
         <v>69</v>
       </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F29" t="n">
-        <v>337</v>
+        <v>711</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02373887240356083</v>
+        <v>0.06047819971870605</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I29" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2246,28 +2120,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
         <v>71</v>
       </c>
-      <c r="D30" t="s">
-        <v>72</v>
-      </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.02317880794701987</v>
       </c>
       <c r="H30" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -2278,31 +2152,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
         <v>73</v>
       </c>
-      <c r="D31" t="s">
-        <v>74</v>
-      </c>
       <c r="E31" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>449</v>
+        <v>184</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04899777282850779</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="H31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I31" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2310,31 +2184,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
-        <v>76</v>
-      </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04929577464788732</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="H32" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I32" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2342,31 +2216,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" t="s">
-        <v>78</v>
-      </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04712041884816754</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="H33" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I33" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2374,31 +2248,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
         <v>79</v>
       </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F34" t="n">
-        <v>117</v>
+        <v>420</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="H34" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I34" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2406,31 +2280,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
         <v>81</v>
       </c>
-      <c r="D35" t="s">
-        <v>82</v>
-      </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>334</v>
+        <v>58</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01796407185628742</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I35" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2438,31 +2312,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
         <v>83</v>
       </c>
-      <c r="D36" t="s">
-        <v>84</v>
-      </c>
       <c r="E36" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>525</v>
+        <v>227</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04380952380952381</v>
+        <v>0.03964757709251102</v>
       </c>
       <c r="H36" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I36" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2470,31 +2344,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
         <v>85</v>
       </c>
-      <c r="D37" t="s">
-        <v>86</v>
-      </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03322259136212625</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="H37" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2502,28 +2376,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
         <v>87</v>
       </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F38" t="n">
-        <v>111</v>
+        <v>682</v>
       </c>
       <c r="G38" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.03372434017595308</v>
       </c>
       <c r="H38" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I38" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -2534,31 +2408,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
         <v>89</v>
       </c>
-      <c r="D39" t="s">
-        <v>90</v>
-      </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04065040650406504</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="H39" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I39" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2566,31 +2440,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
         <v>91</v>
       </c>
-      <c r="D40" t="s">
-        <v>92</v>
-      </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H40" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I40" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2598,28 +2472,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
         <v>93</v>
       </c>
-      <c r="D41" t="s">
-        <v>94</v>
-      </c>
       <c r="E41" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04910714285714286</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H41" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -2630,31 +2504,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
         <v>95</v>
       </c>
-      <c r="D42" t="s">
-        <v>96</v>
-      </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0273972602739726</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="H42" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2662,31 +2536,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
         <v>97</v>
       </c>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>489</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02</v>
+        <v>0.07770961145194274</v>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I43" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2694,31 +2568,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
         <v>99</v>
       </c>
-      <c r="D44" t="s">
-        <v>100</v>
-      </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01449275362318841</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2726,28 +2600,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
         <v>101</v>
       </c>
-      <c r="D45" t="s">
-        <v>102</v>
-      </c>
       <c r="E45" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F45" t="n">
-        <v>698</v>
+        <v>286</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05730659025787966</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="H45" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I45" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -2758,31 +2632,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
         <v>103</v>
       </c>
-      <c r="D46" t="s">
-        <v>104</v>
-      </c>
       <c r="E46" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05851063829787234</v>
+        <v>0.1</v>
       </c>
       <c r="H46" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I46" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2790,28 +2664,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
         <v>105</v>
       </c>
-      <c r="D47" t="s">
-        <v>106</v>
-      </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>640</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05</v>
+        <v>0.0328125</v>
       </c>
       <c r="H47" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I47" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -2822,31 +2696,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
         <v>107</v>
       </c>
-      <c r="D48" t="s">
-        <v>108</v>
-      </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>391</v>
+        <v>160</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01534526854219949</v>
+        <v>0.04375</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I48" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2854,31 +2728,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
         <v>109</v>
       </c>
-      <c r="D49" t="s">
-        <v>110</v>
-      </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="H49" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I49" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2886,28 +2760,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
         <v>111</v>
       </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
       <c r="E50" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>496</v>
+        <v>265</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05040322580645161</v>
+        <v>0.02641509433962264</v>
       </c>
       <c r="H50" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I50" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s">
         <v>12</v>
@@ -2918,31 +2792,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
         <v>113</v>
       </c>
-      <c r="D51" t="s">
-        <v>114</v>
-      </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F51" t="n">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.05</v>
       </c>
       <c r="H51" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I51" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2950,31 +2824,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
         <v>115</v>
       </c>
-      <c r="D52" t="s">
-        <v>116</v>
-      </c>
       <c r="E52" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F52" t="n">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04205607476635514</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H52" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I52" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2982,31 +2856,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
         <v>117</v>
       </c>
-      <c r="D53" t="s">
-        <v>118</v>
-      </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03862660944206009</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="H53" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I53" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3014,31 +2888,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s">
         <v>119</v>
       </c>
-      <c r="D54" t="s">
-        <v>120</v>
-      </c>
       <c r="E54" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F54" t="n">
-        <v>891</v>
+        <v>310</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.03548387096774194</v>
       </c>
       <c r="H54" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I54" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3046,28 +2920,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" t="s">
         <v>121</v>
       </c>
-      <c r="D55" t="s">
-        <v>122</v>
-      </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="G55" t="n">
-        <v>0.046875</v>
+        <v>0.04104477611940299</v>
       </c>
       <c r="H55" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I55" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J55" t="s">
         <v>12</v>
@@ -3078,28 +2952,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" t="s">
         <v>123</v>
       </c>
-      <c r="D56" t="s">
-        <v>124</v>
-      </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="H56" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I56" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s">
         <v>12</v>
@@ -3110,31 +2984,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" t="s">
         <v>125</v>
       </c>
-      <c r="D57" t="s">
-        <v>126</v>
-      </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F57" t="n">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0313588850174216</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="H57" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I57" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3142,31 +3016,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
         <v>127</v>
       </c>
-      <c r="D58" t="s">
-        <v>128</v>
-      </c>
       <c r="E58" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
-        <v>319</v>
+        <v>65</v>
       </c>
       <c r="G58" t="n">
-        <v>0.06269592476489028</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H58" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I58" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3174,31 +3048,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" t="s">
         <v>129</v>
       </c>
-      <c r="D59" t="s">
-        <v>130</v>
-      </c>
       <c r="E59" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F59" t="n">
-        <v>478</v>
+        <v>742</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03765690376569038</v>
+        <v>0.0431266846361186</v>
       </c>
       <c r="H59" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I59" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3206,31 +3080,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" t="s">
         <v>131</v>
       </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01659751037344398</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="H60" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I60" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3238,31 +3112,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
         <v>133</v>
       </c>
-      <c r="D61" t="s">
-        <v>134</v>
-      </c>
       <c r="E61" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F61" t="n">
-        <v>411</v>
+        <v>317</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0218978102189781</v>
+        <v>0.0694006309148265</v>
       </c>
       <c r="H61" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I61" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3270,31 +3144,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s">
         <v>135</v>
       </c>
-      <c r="D62" t="s">
-        <v>136</v>
-      </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="G62" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.03481012658227848</v>
       </c>
       <c r="H62" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3302,31 +3176,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" t="s">
         <v>137</v>
       </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01633986928104575</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I63" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3334,31 +3208,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" t="s">
         <v>139</v>
       </c>
-      <c r="D64" t="s">
-        <v>140</v>
-      </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F64" t="n">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03544303797468355</v>
+        <v>0.07816711590296496</v>
       </c>
       <c r="H64" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I64" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3366,31 +3240,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" t="s">
         <v>141</v>
       </c>
-      <c r="D65" t="s">
-        <v>142</v>
-      </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0625</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="H65" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I65" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3398,7 +3272,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
         <v>143</v>
@@ -3407,19 +3281,19 @@
         <v>144</v>
       </c>
       <c r="E66" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>766</v>
+        <v>85</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05744125326370757</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="H66" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>12</v>
@@ -3430,31 +3304,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F67" t="n">
-        <v>129</v>
+        <v>721</v>
       </c>
       <c r="G67" t="n">
-        <v>0.007751937984496124</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3462,31 +3336,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E68" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F68" t="n">
-        <v>383</v>
+        <v>252</v>
       </c>
       <c r="G68" t="n">
-        <v>0.06788511749347259</v>
+        <v>0.04365079365079365</v>
       </c>
       <c r="H68" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I68" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3494,31 +3368,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>355</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01971830985915493</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="H69" t="n">
+        <v>6</v>
+      </c>
+      <c r="I69" t="n">
         <v>8</v>
       </c>
-      <c r="I69" t="n">
-        <v>56</v>
-      </c>
       <c r="J69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3526,31 +3400,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E70" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03806228373702422</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="H70" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J70" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3558,28 +3432,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E71" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>336</v>
+        <v>477</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.008385744234800839</v>
       </c>
       <c r="H71" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J71" t="s">
         <v>12</v>
@@ -3590,28 +3464,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>168</v>
+        <v>407</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.0171990171990172</v>
       </c>
       <c r="H72" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J72" t="s">
         <v>12</v>
@@ -3622,7 +3496,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
         <v>158</v>
@@ -3631,22 +3505,22 @@
         <v>159</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G73" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3654,31 +3528,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
         <v>160</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>161</v>
       </c>
-      <c r="D74" t="s">
-        <v>162</v>
-      </c>
       <c r="E74" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>797</v>
+        <v>238</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02007528230865746</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I74" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3686,7 +3560,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
         <v>163</v>
@@ -3695,19 +3569,19 @@
         <v>164</v>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04046242774566474</v>
+        <v>0.03367003367003367</v>
       </c>
       <c r="H75" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
         <v>12</v>
@@ -3718,7 +3592,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
         <v>165</v>
@@ -3727,19 +3601,19 @@
         <v>166</v>
       </c>
       <c r="E76" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>433</v>
+        <v>195</v>
       </c>
       <c r="G76" t="n">
-        <v>0.06004618937644342</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H76" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>12</v>
@@ -3750,7 +3624,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
         <v>167</v>
@@ -3759,22 +3633,22 @@
         <v>168</v>
       </c>
       <c r="E77" t="n">
+        <v>9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>240</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="H77" t="n">
         <v>3</v>
       </c>
-      <c r="F77" t="n">
-        <v>121</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.02479338842975207</v>
-      </c>
-      <c r="H77" t="n">
-        <v>6</v>
-      </c>
       <c r="I77" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3782,7 +3656,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
         <v>169</v>
@@ -3791,22 +3665,22 @@
         <v>170</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F78" t="n">
-        <v>416</v>
+        <v>190</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3814,31 +3688,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>576</v>
+        <v>279</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03645833333333334</v>
+        <v>0.07168458781362007</v>
       </c>
       <c r="H79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3846,31 +3720,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>590</v>
+        <v>118</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02372881355932203</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="H80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3878,31 +3752,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02121212121212121</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="n">
         <v>4</v>
       </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
       <c r="J81" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3910,31 +3784,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E82" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>598</v>
+        <v>103</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04013377926421405</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="H82" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3942,31 +3816,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F83" t="n">
-        <v>176</v>
+        <v>705</v>
       </c>
       <c r="G83" t="n">
-        <v>0.005681818181818182</v>
+        <v>0.03829787234042553</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I83" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3974,31 +3848,31 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E84" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F84" t="n">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03823529411764706</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="H84" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I84" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J84" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4006,28 +3880,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E85" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F85" t="n">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G85" t="n">
-        <v>0.06547619047619048</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J85" t="s">
         <v>12</v>
@@ -4038,31 +3912,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="G86" t="n">
-        <v>0.05921052631578947</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J86" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4070,28 +3944,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E87" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F87" t="n">
-        <v>275</v>
+        <v>509</v>
       </c>
       <c r="G87" t="n">
-        <v>0.07636363636363637</v>
+        <v>0.03143418467583497</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J87" t="s">
         <v>12</v>
@@ -4102,31 +3976,31 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03755868544600939</v>
+        <v>0.02723735408560311</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J88" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4134,7 +4008,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
         <v>193</v>
@@ -4143,22 +4017,22 @@
         <v>194</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03311258278145696</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="I89" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4166,7 +4040,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
         <v>195</v>
@@ -4175,22 +4049,22 @@
         <v>196</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>69</v>
+        <v>420</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07246376811594203</v>
+        <v>0.04047619047619048</v>
       </c>
       <c r="H90" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I90" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J90" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4198,7 +4072,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C91" t="s">
         <v>197</v>
@@ -4207,22 +4081,22 @@
         <v>198</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
-        <v>132</v>
+        <v>283</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03787878787878788</v>
+        <v>0.02120141342756184</v>
       </c>
       <c r="H91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J91" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4230,7 +4104,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
         <v>199</v>
@@ -4239,19 +4113,19 @@
         <v>200</v>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04032258064516129</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="H92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I92" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J92" t="s">
         <v>12</v>
@@ -4262,7 +4136,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
         <v>201</v>
@@ -4271,22 +4145,22 @@
         <v>202</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="G93" t="n">
-        <v>0.008928571428571428</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I93" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J93" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4294,7 +4168,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
         <v>203</v>
@@ -4303,22 +4177,22 @@
         <v>204</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>30</v>
+        <v>409</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.04156479217603912</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I94" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4326,31 +4200,31 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" t="s">
         <v>205</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>206</v>
       </c>
-      <c r="D95" t="s">
-        <v>207</v>
-      </c>
       <c r="E95" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>804</v>
+        <v>244</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02736318407960199</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="H95" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I95" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J95" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4358,31 +4232,31 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C96" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" t="s">
         <v>208</v>
       </c>
-      <c r="D96" t="s">
-        <v>209</v>
-      </c>
       <c r="E96" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>407</v>
+        <v>246</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0343980343980344</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="H96" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I96" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4390,31 +4264,31 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C97" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" t="s">
         <v>210</v>
       </c>
-      <c r="D97" t="s">
-        <v>211</v>
-      </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F97" t="n">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03367875647668394</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="H97" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I97" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4422,28 +4296,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" t="s">
         <v>212</v>
       </c>
-      <c r="D98" t="s">
-        <v>213</v>
-      </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>148</v>
+        <v>675</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0472972972972973</v>
+        <v>0.02518518518518519</v>
       </c>
       <c r="H98" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J98" t="s">
         <v>12</v>
@@ -4454,28 +4328,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" t="s">
         <v>214</v>
       </c>
-      <c r="D99" t="s">
-        <v>215</v>
-      </c>
       <c r="E99" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0440251572327044</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="H99" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I99" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J99" t="s">
         <v>12</v>
@@ -4486,31 +4360,31 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
+        <v>215</v>
+      </c>
+      <c r="D100" t="s">
         <v>216</v>
       </c>
-      <c r="D100" t="s">
-        <v>217</v>
-      </c>
       <c r="E100" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F100" t="n">
-        <v>585</v>
+        <v>124</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02735042735042735</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="H100" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I100" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4518,28 +4392,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C101" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" t="s">
         <v>218</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="n">
+        <v>7</v>
+      </c>
+      <c r="F101" t="n">
         <v>219</v>
       </c>
-      <c r="E101" t="n">
-        <v>8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>182</v>
-      </c>
       <c r="G101" t="n">
-        <v>0.04395604395604396</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="H101" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I101" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J101" t="s">
         <v>12</v>
@@ -4550,28 +4424,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C102" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" t="s">
         <v>220</v>
       </c>
-      <c r="D102" t="s">
-        <v>221</v>
-      </c>
       <c r="E102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F102" t="n">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="G102" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.03755868544600939</v>
       </c>
       <c r="H102" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I102" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J102" t="s">
         <v>12</v>
@@ -4582,28 +4456,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" t="s">
         <v>222</v>
       </c>
-      <c r="D103" t="s">
-        <v>223</v>
-      </c>
       <c r="E103" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
-        <v>414</v>
+        <v>151</v>
       </c>
       <c r="G103" t="n">
-        <v>0.05797101449275362</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="H103" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J103" t="s">
         <v>12</v>
@@ -4614,31 +4488,31 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C104" t="s">
+        <v>223</v>
+      </c>
+      <c r="D104" t="s">
         <v>224</v>
       </c>
-      <c r="D104" t="s">
-        <v>225</v>
-      </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F104" t="n">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01702127659574468</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I104" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4646,31 +4520,31 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" t="s">
         <v>226</v>
       </c>
-      <c r="D105" t="s">
-        <v>227</v>
-      </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F105" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02758620689655172</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="H105" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I105" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4678,31 +4552,31 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C106" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" t="s">
         <v>228</v>
       </c>
-      <c r="D106" t="s">
-        <v>229</v>
-      </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F106" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="H106" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I106" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4710,28 +4584,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C107" t="s">
+        <v>229</v>
+      </c>
+      <c r="D107" t="s">
         <v>230</v>
       </c>
-      <c r="D107" t="s">
-        <v>231</v>
-      </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F107" t="n">
-        <v>57</v>
+        <v>655</v>
       </c>
       <c r="G107" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="H107" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I107" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J107" t="s">
         <v>12</v>
@@ -4742,31 +4616,31 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C108" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" t="s">
         <v>232</v>
       </c>
-      <c r="D108" t="s">
-        <v>233</v>
-      </c>
       <c r="E108" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>393</v>
+        <v>192</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03307888040712468</v>
+        <v>0.03125</v>
       </c>
       <c r="H108" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I108" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J108" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4774,31 +4648,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C109" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" t="s">
         <v>234</v>
       </c>
-      <c r="D109" t="s">
-        <v>235</v>
-      </c>
       <c r="E109" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F109" t="n">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="G109" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="H109" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I109" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J109" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4806,28 +4680,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C110" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" t="s">
         <v>236</v>
       </c>
-      <c r="D110" t="s">
-        <v>237</v>
-      </c>
       <c r="E110" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F110" t="n">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
-        <v>0.04850746268656717</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="H110" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J110" t="s">
         <v>12</v>
@@ -4838,28 +4712,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C111" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" t="s">
         <v>238</v>
       </c>
-      <c r="D111" t="s">
-        <v>239</v>
-      </c>
       <c r="E111" t="n">
+        <v>15</v>
+      </c>
+      <c r="F111" t="n">
+        <v>410</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.03658536585365853</v>
+      </c>
+      <c r="H111" t="n">
         <v>17</v>
       </c>
-      <c r="F111" t="n">
-        <v>161</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.1055900621118012</v>
-      </c>
-      <c r="H111" t="n">
-        <v>37</v>
-      </c>
       <c r="I111" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J111" t="s">
         <v>12</v>
@@ -4870,31 +4744,31 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C112" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" t="s">
         <v>240</v>
       </c>
-      <c r="D112" t="s">
-        <v>241</v>
-      </c>
       <c r="E112" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F112" t="n">
-        <v>790</v>
+        <v>319</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02658227848101266</v>
+        <v>0.05015673981191222</v>
       </c>
       <c r="H112" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I112" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4902,31 +4776,31 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" t="s">
         <v>242</v>
       </c>
-      <c r="D113" t="s">
-        <v>243</v>
-      </c>
       <c r="E113" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02649006622516556</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H113" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I113" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4934,31 +4808,31 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C114" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" t="s">
         <v>244</v>
       </c>
-      <c r="D114" t="s">
-        <v>245</v>
-      </c>
       <c r="E114" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F114" t="n">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="G114" t="n">
-        <v>0.06741573033707865</v>
+        <v>0.06198347107438017</v>
       </c>
       <c r="H114" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I114" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J114" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4966,31 +4840,31 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C115" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" t="s">
         <v>246</v>
       </c>
-      <c r="D115" t="s">
-        <v>247</v>
-      </c>
       <c r="E115" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F115" t="n">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03141361256544502</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="H115" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I115" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4998,7 +4872,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="C116" t="s">
         <v>248</v>
@@ -5007,22 +4881,22 @@
         <v>249</v>
       </c>
       <c r="E116" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02808988764044944</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="H116" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -5030,7 +4904,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="C117" t="s">
         <v>250</v>
@@ -5039,22 +4913,22 @@
         <v>251</v>
       </c>
       <c r="E117" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="H117" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5062,7 +4936,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="C118" t="s">
         <v>252</v>
@@ -5071,22 +4945,22 @@
         <v>253</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F118" t="n">
-        <v>34</v>
+        <v>603</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>0.06301824212271974</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5094,28 +4968,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C119" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E119" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="G119" t="n">
-        <v>0.05213270142180094</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J119" t="s">
         <v>12</v>
@@ -5126,31 +5000,31 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F120" t="n">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="G120" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I120" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -5158,28 +5032,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C121" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E121" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G121" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="H121" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I121" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J121" t="s">
         <v>12</v>
@@ -5190,31 +5064,31 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D122" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E122" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F122" t="n">
-        <v>617</v>
+        <v>117</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04051863857374392</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="H122" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I122" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -5222,28 +5096,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D123" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>40</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
         <v>9</v>
-      </c>
-      <c r="F123" t="n">
-        <v>183</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="H123" t="n">
-        <v>28</v>
-      </c>
-      <c r="I123" t="n">
-        <v>37</v>
       </c>
       <c r="J123" t="s">
         <v>12</v>
@@ -5254,28 +5128,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E124" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="G124" t="n">
-        <v>0.052</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="H124" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J124" t="s">
         <v>12</v>
@@ -5286,31 +5160,31 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="G125" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="H125" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I125" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J125" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5318,31 +5192,31 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D126" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E126" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="G126" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J126" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5350,671 +5224,31 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C127" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D127" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E127" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
-        <v>330</v>
+        <v>66</v>
       </c>
       <c r="G127" t="n">
         <v>0.0303030303030303</v>
       </c>
       <c r="H127" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I127" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J127" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>205</v>
-      </c>
-      <c r="C128" t="s">
-        <v>272</v>
-      </c>
-      <c r="D128" t="s">
-        <v>273</v>
-      </c>
-      <c r="E128" t="n">
-        <v>15</v>
-      </c>
-      <c r="F128" t="n">
-        <v>454</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.03303964757709251</v>
-      </c>
-      <c r="H128" t="n">
-        <v>15</v>
-      </c>
-      <c r="I128" t="n">
-        <v>37</v>
-      </c>
-      <c r="J128" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>205</v>
-      </c>
-      <c r="C129" t="s">
-        <v>274</v>
-      </c>
-      <c r="D129" t="s">
-        <v>275</v>
-      </c>
-      <c r="E129" t="n">
-        <v>7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>158</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.04430379746835443</v>
-      </c>
-      <c r="H129" t="n">
-        <v>25</v>
-      </c>
-      <c r="I129" t="n">
-        <v>37</v>
-      </c>
-      <c r="J129" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>205</v>
-      </c>
-      <c r="C130" t="s">
-        <v>276</v>
-      </c>
-      <c r="D130" t="s">
-        <v>277</v>
-      </c>
-      <c r="E130" t="n">
-        <v>8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>210</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.0380952380952381</v>
-      </c>
-      <c r="H130" t="n">
-        <v>19</v>
-      </c>
-      <c r="I130" t="n">
-        <v>37</v>
-      </c>
-      <c r="J130" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>205</v>
-      </c>
-      <c r="C131" t="s">
-        <v>278</v>
-      </c>
-      <c r="D131" t="s">
-        <v>279</v>
-      </c>
-      <c r="E131" t="n">
-        <v>21</v>
-      </c>
-      <c r="F131" t="n">
-        <v>302</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.0695364238410596</v>
-      </c>
-      <c r="H131" t="n">
-        <v>35</v>
-      </c>
-      <c r="I131" t="n">
-        <v>37</v>
-      </c>
-      <c r="J131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>280</v>
-      </c>
-      <c r="C132" t="s">
-        <v>281</v>
-      </c>
-      <c r="D132" t="s">
-        <v>282</v>
-      </c>
-      <c r="E132" t="n">
-        <v>7</v>
-      </c>
-      <c r="F132" t="n">
-        <v>223</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.03139013452914798</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5</v>
-      </c>
-      <c r="J132" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>280</v>
-      </c>
-      <c r="C133" t="s">
-        <v>283</v>
-      </c>
-      <c r="D133" t="s">
-        <v>284</v>
-      </c>
-      <c r="E133" t="n">
-        <v>8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>138</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.05797101449275362</v>
-      </c>
-      <c r="H133" t="n">
-        <v>4</v>
-      </c>
-      <c r="I133" t="n">
-        <v>5</v>
-      </c>
-      <c r="J133" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>280</v>
-      </c>
-      <c r="C134" t="s">
-        <v>285</v>
-      </c>
-      <c r="D134" t="s">
-        <v>286</v>
-      </c>
-      <c r="E134" t="n">
-        <v>40</v>
-      </c>
-      <c r="F134" t="n">
-        <v>700</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="H134" t="n">
-        <v>3</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5</v>
-      </c>
-      <c r="J134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>280</v>
-      </c>
-      <c r="C135" t="s">
-        <v>287</v>
-      </c>
-      <c r="D135" t="s">
-        <v>288</v>
-      </c>
-      <c r="E135" t="n">
-        <v>3</v>
-      </c>
-      <c r="F135" t="n">
-        <v>86</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.03488372093023256</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>5</v>
-      </c>
-      <c r="J135" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>280</v>
-      </c>
-      <c r="C136" t="s">
-        <v>289</v>
-      </c>
-      <c r="D136" t="s">
-        <v>290</v>
-      </c>
-      <c r="E136" t="n">
-        <v>7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>90</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.07777777777777778</v>
-      </c>
-      <c r="H136" t="n">
-        <v>5</v>
-      </c>
-      <c r="I136" t="n">
-        <v>5</v>
-      </c>
-      <c r="J136" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>291</v>
-      </c>
-      <c r="C137" t="s">
-        <v>292</v>
-      </c>
-      <c r="D137" t="s">
-        <v>293</v>
-      </c>
-      <c r="E137" t="n">
-        <v>7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>234</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.02991452991452992</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2</v>
-      </c>
-      <c r="J137" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>291</v>
-      </c>
-      <c r="C138" t="s">
-        <v>294</v>
-      </c>
-      <c r="D138" t="s">
-        <v>295</v>
-      </c>
-      <c r="E138" t="n">
-        <v>10</v>
-      </c>
-      <c r="F138" t="n">
-        <v>302</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.03311258278145696</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2</v>
-      </c>
-      <c r="J138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>296</v>
-      </c>
-      <c r="C139" t="s">
-        <v>297</v>
-      </c>
-      <c r="D139" t="s">
-        <v>298</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>77</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.01298701298701299</v>
-      </c>
-      <c r="H139" t="n">
-        <v>5</v>
-      </c>
-      <c r="I139" t="n">
-        <v>9</v>
-      </c>
-      <c r="J139" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>296</v>
-      </c>
-      <c r="C140" t="s">
-        <v>299</v>
-      </c>
-      <c r="D140" t="s">
-        <v>300</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>56</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="H140" t="n">
-        <v>6</v>
-      </c>
-      <c r="I140" t="n">
-        <v>9</v>
-      </c>
-      <c r="J140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>296</v>
-      </c>
-      <c r="C141" t="s">
-        <v>301</v>
-      </c>
-      <c r="D141" t="s">
-        <v>302</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>8</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>9</v>
-      </c>
-      <c r="J141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>296</v>
-      </c>
-      <c r="C142" t="s">
-        <v>303</v>
-      </c>
-      <c r="D142" t="s">
-        <v>304</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>40</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="H142" t="n">
-        <v>7</v>
-      </c>
-      <c r="I142" t="n">
-        <v>9</v>
-      </c>
-      <c r="J142" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>296</v>
-      </c>
-      <c r="C143" t="s">
-        <v>305</v>
-      </c>
-      <c r="D143" t="s">
-        <v>306</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>73</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>9</v>
-      </c>
-      <c r="J143" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>296</v>
-      </c>
-      <c r="C144" t="s">
-        <v>307</v>
-      </c>
-      <c r="D144" t="s">
-        <v>308</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>25</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H144" t="n">
-        <v>9</v>
-      </c>
-      <c r="I144" t="n">
-        <v>9</v>
-      </c>
-      <c r="J144" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>296</v>
-      </c>
-      <c r="C145" t="s">
-        <v>309</v>
-      </c>
-      <c r="D145" t="s">
-        <v>310</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>3</v>
-      </c>
-      <c r="I145" t="n">
-        <v>9</v>
-      </c>
-      <c r="J145" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>296</v>
-      </c>
-      <c r="C146" t="s">
-        <v>311</v>
-      </c>
-      <c r="D146" t="s">
-        <v>312</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" t="n">
-        <v>39</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" t="n">
-        <v>4</v>
-      </c>
-      <c r="I146" t="n">
-        <v>9</v>
-      </c>
-      <c r="J146" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>296</v>
-      </c>
-      <c r="C147" t="s">
-        <v>313</v>
-      </c>
-      <c r="D147" t="s">
-        <v>314</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1</v>
-      </c>
-      <c r="F147" t="n">
-        <v>37</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="H147" t="n">
-        <v>8</v>
-      </c>
-      <c r="I147" t="n">
-        <v>9</v>
-      </c>
-      <c r="J147" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/输出/区经区助扣罚免除.xlsx
+++ b/输出/区经区助扣罚免除.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
   <si>
     <t>城市经理</t>
   </si>
   <si>
-    <t>区经工号_x</t>
+    <t>区经工号</t>
   </si>
   <si>
     <t>区经姓名</t>
@@ -44,6 +44,9 @@
     <t>是否免扣</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>云南大区</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>免扣</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>12190064</t>
   </si>
   <si>
@@ -65,36 +71,54 @@
     <t>扣罚</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>13170021</t>
   </si>
   <si>
     <t>莫钦</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>20240020</t>
   </si>
   <si>
     <t>唐显明</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>23260067</t>
   </si>
   <si>
     <t>魏长生</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>25260035</t>
   </si>
   <si>
     <t>杨长林</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>26120142</t>
   </si>
   <si>
     <t>周列辉</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>内蒙古大区</t>
   </si>
   <si>
@@ -104,18 +128,27 @@
     <t>曹路</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>12070026</t>
   </si>
   <si>
     <t>李刚刚</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>25260041</t>
   </si>
   <si>
     <t>杨智强</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>新疆大区</t>
   </si>
   <si>
@@ -125,324 +158,486 @@
     <t>别克木尔扎·扎依尔</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>03040035</t>
   </si>
   <si>
     <t>程登辉</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>03080066</t>
   </si>
   <si>
     <t>陈辉</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>03250093</t>
   </si>
   <si>
     <t>陈延林</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>03260068</t>
   </si>
   <si>
     <t>程自强</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>04110010</t>
   </si>
   <si>
     <t>杜开</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>04120018</t>
   </si>
   <si>
     <t>段磊</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>04240047</t>
   </si>
   <si>
     <t>邓雪飞</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>04250079</t>
   </si>
   <si>
     <t>党燕平</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>06230014</t>
   </si>
   <si>
     <t>冯文财</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>08080043</t>
   </si>
   <si>
     <t>何好</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>08100085</t>
   </si>
   <si>
     <t>胡佳冰</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>08170046</t>
   </si>
   <si>
     <t>黄巧</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>08260079</t>
   </si>
   <si>
     <t>胡忠旺</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>12030071</t>
   </si>
   <si>
     <t>李成龙</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>12100406</t>
   </si>
   <si>
     <t>林静</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>12160065</t>
   </si>
   <si>
     <t>李攀</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>12190182</t>
   </si>
   <si>
     <t>李仕兴</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>12250483</t>
   </si>
   <si>
     <t>赖艳</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>13060006</t>
   </si>
   <si>
     <t>马飞</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>13100060</t>
   </si>
   <si>
     <t>马继云</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>13120052</t>
   </si>
   <si>
     <t>马丽娜</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>13180006</t>
   </si>
   <si>
     <t>莫锐</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>13180009</t>
   </si>
   <si>
     <t>马锐</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>13190025</t>
   </si>
   <si>
     <t>毛诗浩</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>13230007</t>
   </si>
   <si>
     <t>马文涛</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>13230011</t>
   </si>
   <si>
     <t>买吾拉尼·吐尔逊</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>13260012</t>
   </si>
   <si>
     <t>马宗魁</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>17100016</t>
   </si>
   <si>
     <t>卿继蓬</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>19160015</t>
   </si>
   <si>
     <t>孙鹏翔</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>19240061</t>
   </si>
   <si>
     <t>盛学良</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>23120162</t>
   </si>
   <si>
     <t>吴磊</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>23130058</t>
   </si>
   <si>
     <t>王明</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>23130064</t>
   </si>
   <si>
     <t>魏明刚</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>23170097</t>
   </si>
   <si>
     <t>王琦</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>23200002</t>
   </si>
   <si>
     <t>王滔</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>23240210</t>
   </si>
   <si>
     <t>王兴杰</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>23250234</t>
   </si>
   <si>
     <t>王燕群</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>23250352</t>
   </si>
   <si>
     <t>武亚文</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>23260141</t>
   </si>
   <si>
     <t>王志伟</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>23260175</t>
   </si>
   <si>
     <t>王中宇</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>25110024</t>
   </si>
   <si>
     <t>杨凯</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>25110045</t>
   </si>
   <si>
     <t>姚昆</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>26020047</t>
   </si>
   <si>
     <t>周兵</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>26030047</t>
   </si>
   <si>
     <t>周承军</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>26030079</t>
   </si>
   <si>
     <t>张超</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>26080137</t>
   </si>
   <si>
     <t>张浩</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>26100202</t>
   </si>
   <si>
     <t>张俊杰</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>26120279</t>
   </si>
   <si>
     <t>郑利刚</t>
   </si>
   <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>26240167</t>
   </si>
   <si>
     <t>张新明</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>26250307</t>
   </si>
   <si>
     <t>张元兵</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>26250381</t>
   </si>
   <si>
     <t>遭永成</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>26250388</t>
   </si>
   <si>
     <t>周燕</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>26250421</t>
   </si>
   <si>
     <t>张勇</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>河南大区</t>
   </si>
   <si>
@@ -452,6 +647,9 @@
     <t>梁家辉</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>海南大区</t>
   </si>
   <si>
@@ -461,48 +659,72 @@
     <t>陈招文</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>07190038</t>
   </si>
   <si>
     <t>甘善泽</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>12100481</t>
   </si>
   <si>
     <t>李佳</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>12250413</t>
   </si>
   <si>
     <t>林应帅</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>23170073</t>
   </si>
   <si>
     <t>王群斯</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>23230071</t>
   </si>
   <si>
     <t>王婉莉</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>26060058</t>
   </si>
   <si>
     <t>张峰</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>26080146</t>
   </si>
   <si>
     <t>朱海龙</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>甘肃大区</t>
   </si>
   <si>
@@ -512,24 +734,36 @@
     <t>李天鹏</t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>19020017</t>
   </si>
   <si>
     <t>宋斌</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>26100136</t>
   </si>
   <si>
     <t>朱军伟</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>26250110</t>
   </si>
   <si>
     <t>周永刚</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>西藏大区</t>
   </si>
   <si>
@@ -539,24 +773,36 @@
     <t>马艾布</t>
   </si>
   <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>18020001</t>
   </si>
   <si>
     <t>冉宝</t>
   </si>
   <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>19040037</t>
   </si>
   <si>
     <t>盛玬玛</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>26120068</t>
   </si>
   <si>
     <t>朱琳</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
     <t>贵州大区</t>
   </si>
   <si>
@@ -566,198 +812,297 @@
     <t>柏超</t>
   </si>
   <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>02170003</t>
   </si>
   <si>
     <t>柏黔岽</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>02240005</t>
   </si>
   <si>
     <t>鲍星</t>
   </si>
   <si>
+    <t>84</t>
+  </si>
+  <si>
     <t>03030001</t>
   </si>
   <si>
     <t>陈朝勇</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>03080036</t>
   </si>
   <si>
     <t>曾辉</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>03100091</t>
   </si>
   <si>
     <t>程俊铭</t>
   </si>
   <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>03230023</t>
   </si>
   <si>
     <t>曾伟</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>03240018</t>
   </si>
   <si>
     <t>陈璇</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
     <t>04080038</t>
   </si>
   <si>
     <t>杜海</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>06250007</t>
   </si>
   <si>
     <t>冯永浩东</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>07260030</t>
   </si>
   <si>
     <t>郭长进</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>12130020</t>
   </si>
   <si>
     <t>刘明杰</t>
   </si>
   <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>12170004</t>
   </si>
   <si>
     <t>隆黔钧</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>12240324</t>
   </si>
   <si>
     <t>吕鑫</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>13040003</t>
   </si>
   <si>
     <t>蒙丹</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
     <t>17250016</t>
   </si>
   <si>
     <t>钱宇</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>18120006</t>
   </si>
   <si>
     <t>冉龙科</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>23040067</t>
   </si>
   <si>
     <t>吴迪</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>23060007</t>
   </si>
   <si>
     <t>王福海</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>23080028</t>
   </si>
   <si>
     <t>王华</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>23100018</t>
   </si>
   <si>
     <t>伍晶</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>23250401</t>
   </si>
   <si>
     <t>王永辉</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>24060009</t>
   </si>
   <si>
     <t>徐发刚</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>24260027</t>
   </si>
   <si>
     <t>许忠漭</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>25020038</t>
   </si>
   <si>
     <t>易斌</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>25040006</t>
   </si>
   <si>
     <t>犹敦信</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>25120103</t>
   </si>
   <si>
     <t>杨龙</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>25190009</t>
   </si>
   <si>
     <t>余松绩</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
     <t>26010001</t>
   </si>
   <si>
     <t>周安江</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>26040028</t>
   </si>
   <si>
     <t>朱达松</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>26100036</t>
   </si>
   <si>
     <t>邹杰</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>26170011</t>
   </si>
   <si>
     <t>张强</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>26240029</t>
   </si>
   <si>
     <t>邹幸朋</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>陕西大区</t>
   </si>
   <si>
@@ -767,18 +1112,27 @@
     <t>董攀妮</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>10080045</t>
   </si>
   <si>
     <t>井海</t>
   </si>
   <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>12250053</t>
   </si>
   <si>
     <t>林雅琼</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>黑龙江大区</t>
   </si>
   <si>
@@ -788,46 +1142,70 @@
     <t>高丽莉</t>
   </si>
   <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>12120291</t>
   </si>
   <si>
     <t>吕龙</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>19230046</t>
   </si>
   <si>
     <t>孙文萍</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>23100284</t>
   </si>
   <si>
     <t>王嘉雷</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>23240311</t>
   </si>
   <si>
     <t>王小丽</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>25110055</t>
   </si>
   <si>
     <t>伊可鑫</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>26120368</t>
   </si>
   <si>
     <t>赵力</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
     <t>26230161</t>
   </si>
   <si>
     <t>周伟玲</t>
+  </si>
+  <si>
+    <t>125</t>
   </si>
   <si>
     <t>26250493</t>
@@ -1220,17 +1598,17 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -1248,21 +1626,21 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -1280,21 +1658,21 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -1312,21 +1690,21 @@
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -1344,21 +1722,21 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>14</v>
@@ -1376,21 +1754,21 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -1408,21 +1786,21 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -1440,21 +1818,21 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
         <v>14</v>
@@ -1472,21 +1850,21 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1504,21 +1882,21 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -1536,21 +1914,21 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
@@ -1568,21 +1946,21 @@
         <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E13" t="n">
         <v>14</v>
@@ -1600,21 +1978,21 @@
         <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1632,21 +2010,21 @@
         <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
@@ -1664,21 +2042,21 @@
         <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1696,21 +2074,21 @@
         <v>54</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E17" t="n">
         <v>18</v>
@@ -1728,21 +2106,21 @@
         <v>54</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E18" t="n">
         <v>50</v>
@@ -1760,21 +2138,21 @@
         <v>54</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
@@ -1792,21 +2170,21 @@
         <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
@@ -1824,21 +2202,21 @@
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1856,21 +2234,21 @@
         <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E22" t="n">
         <v>18</v>
@@ -1888,21 +2266,21 @@
         <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -1920,21 +2298,21 @@
         <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
@@ -1952,21 +2330,21 @@
         <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -1984,21 +2362,21 @@
         <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
@@ -2016,21 +2394,21 @@
         <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
@@ -2048,21 +2426,21 @@
         <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2080,21 +2458,21 @@
         <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E29" t="n">
         <v>43</v>
@@ -2112,21 +2490,21 @@
         <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -2144,21 +2522,21 @@
         <v>54</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2176,21 +2554,21 @@
         <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E32" t="n">
         <v>11</v>
@@ -2208,21 +2586,21 @@
         <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="E33" t="n">
         <v>6</v>
@@ -2240,21 +2618,21 @@
         <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -2272,21 +2650,21 @@
         <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="E35" t="n">
         <v>2</v>
@@ -2304,21 +2682,21 @@
         <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2336,21 +2714,21 @@
         <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
@@ -2368,21 +2746,21 @@
         <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E38" t="n">
         <v>23</v>
@@ -2400,21 +2778,21 @@
         <v>54</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -2432,21 +2810,21 @@
         <v>54</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -2464,21 +2842,21 @@
         <v>54</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
@@ -2496,21 +2874,21 @@
         <v>54</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -2528,21 +2906,21 @@
         <v>54</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="E43" t="n">
         <v>38</v>
@@ -2560,21 +2938,21 @@
         <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="E44" t="n">
         <v>3</v>
@@ -2592,21 +2970,21 @@
         <v>54</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -2624,21 +3002,21 @@
         <v>54</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="E46" t="n">
         <v>9</v>
@@ -2656,21 +3034,21 @@
         <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E47" t="n">
         <v>21</v>
@@ -2688,21 +3066,21 @@
         <v>54</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="E48" t="n">
         <v>7</v>
@@ -2720,21 +3098,21 @@
         <v>54</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -2752,21 +3130,21 @@
         <v>54</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E50" t="n">
         <v>7</v>
@@ -2784,21 +3162,21 @@
         <v>54</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E51" t="n">
         <v>11</v>
@@ -2816,21 +3194,21 @@
         <v>54</v>
       </c>
       <c r="J51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="E52" t="n">
         <v>23</v>
@@ -2848,21 +3226,21 @@
         <v>54</v>
       </c>
       <c r="J52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -2880,21 +3258,21 @@
         <v>54</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="E54" t="n">
         <v>11</v>
@@ -2912,21 +3290,21 @@
         <v>54</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="E55" t="n">
         <v>11</v>
@@ -2944,21 +3322,21 @@
         <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -2976,21 +3354,21 @@
         <v>54</v>
       </c>
       <c r="J56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="E57" t="n">
         <v>18</v>
@@ -3008,21 +3386,21 @@
         <v>54</v>
       </c>
       <c r="J57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -3040,21 +3418,21 @@
         <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="E59" t="n">
         <v>32</v>
@@ -3072,21 +3450,21 @@
         <v>54</v>
       </c>
       <c r="J59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -3104,21 +3482,21 @@
         <v>54</v>
       </c>
       <c r="J60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="E61" t="n">
         <v>22</v>
@@ -3136,21 +3514,21 @@
         <v>54</v>
       </c>
       <c r="J61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="E62" t="n">
         <v>11</v>
@@ -3168,21 +3546,21 @@
         <v>54</v>
       </c>
       <c r="J62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="E63" t="n">
         <v>14</v>
@@ -3200,21 +3578,21 @@
         <v>54</v>
       </c>
       <c r="J63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="E64" t="n">
         <v>29</v>
@@ -3232,21 +3610,21 @@
         <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -3264,21 +3642,21 @@
         <v>54</v>
       </c>
       <c r="J65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -3296,21 +3674,21 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="E67" t="n">
         <v>14</v>
@@ -3328,21 +3706,21 @@
         <v>8</v>
       </c>
       <c r="J67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="E68" t="n">
         <v>11</v>
@@ -3360,21 +3738,21 @@
         <v>8</v>
       </c>
       <c r="J68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -3392,21 +3770,21 @@
         <v>8</v>
       </c>
       <c r="J69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="E70" t="n">
         <v>6</v>
@@ -3424,21 +3802,21 @@
         <v>8</v>
       </c>
       <c r="J70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -3456,21 +3834,21 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="D72" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="E72" t="n">
         <v>7</v>
@@ -3488,21 +3866,21 @@
         <v>8</v>
       </c>
       <c r="J72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="D73" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -3520,21 +3898,21 @@
         <v>8</v>
       </c>
       <c r="J73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -3552,21 +3930,21 @@
         <v>8</v>
       </c>
       <c r="J74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -3584,21 +3962,21 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -3616,21 +3994,21 @@
         <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="E77" t="n">
         <v>9</v>
@@ -3648,21 +4026,21 @@
         <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="E78" t="n">
         <v>14</v>
@@ -3680,21 +4058,21 @@
         <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="D79" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="E79" t="n">
         <v>20</v>
@@ -3712,21 +4090,21 @@
         <v>4</v>
       </c>
       <c r="J79" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -3744,21 +4122,21 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="E81" t="n">
         <v>9</v>
@@ -3776,21 +4154,21 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="C82" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
@@ -3808,21 +4186,21 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="E83" t="n">
         <v>27</v>
@@ -3840,21 +4218,21 @@
         <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="D84" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="E84" t="n">
         <v>21</v>
@@ -3872,21 +4250,21 @@
         <v>33</v>
       </c>
       <c r="J84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="E85" t="n">
         <v>12</v>
@@ -3904,21 +4282,21 @@
         <v>33</v>
       </c>
       <c r="J85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="E86" t="n">
         <v>9</v>
@@ -3936,21 +4314,21 @@
         <v>33</v>
       </c>
       <c r="J86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="D87" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -3968,21 +4346,21 @@
         <v>33</v>
       </c>
       <c r="J87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C88" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="D88" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="E88" t="n">
         <v>7</v>
@@ -4000,21 +4378,21 @@
         <v>33</v>
       </c>
       <c r="J88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="D89" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -4032,21 +4410,21 @@
         <v>33</v>
       </c>
       <c r="J89" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="D90" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="E90" t="n">
         <v>17</v>
@@ -4064,21 +4442,21 @@
         <v>33</v>
       </c>
       <c r="J90" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="D91" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="E91" t="n">
         <v>6</v>
@@ -4096,21 +4474,21 @@
         <v>33</v>
       </c>
       <c r="J91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="D92" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
@@ -4128,21 +4506,21 @@
         <v>33</v>
       </c>
       <c r="J92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="D93" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -4160,21 +4538,21 @@
         <v>33</v>
       </c>
       <c r="J93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="D94" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="E94" t="n">
         <v>17</v>
@@ -4192,21 +4570,21 @@
         <v>33</v>
       </c>
       <c r="J94" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
@@ -4224,21 +4602,21 @@
         <v>33</v>
       </c>
       <c r="J95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -4256,21 +4634,21 @@
         <v>33</v>
       </c>
       <c r="J96" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="D97" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -4288,21 +4666,21 @@
         <v>33</v>
       </c>
       <c r="J97" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="E98" t="n">
         <v>17</v>
@@ -4320,21 +4698,21 @@
         <v>33</v>
       </c>
       <c r="J98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="D99" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -4352,21 +4730,21 @@
         <v>33</v>
       </c>
       <c r="J99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C100" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="E100" t="n">
         <v>6</v>
@@ -4384,21 +4762,21 @@
         <v>33</v>
       </c>
       <c r="J100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="D101" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="E101" t="n">
         <v>7</v>
@@ -4416,21 +4794,21 @@
         <v>33</v>
       </c>
       <c r="J101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="D102" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -4448,21 +4826,21 @@
         <v>33</v>
       </c>
       <c r="J102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="D103" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="E103" t="n">
         <v>4</v>
@@ -4480,21 +4858,21 @@
         <v>33</v>
       </c>
       <c r="J103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C104" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
       <c r="D104" t="s">
-        <v>224</v>
+        <v>327</v>
       </c>
       <c r="E104" t="n">
         <v>23</v>
@@ -4512,21 +4890,21 @@
         <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="D105" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -4544,21 +4922,21 @@
         <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C106" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="D106" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="E106" t="n">
         <v>6</v>
@@ -4576,21 +4954,21 @@
         <v>33</v>
       </c>
       <c r="J106" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C107" t="s">
-        <v>229</v>
+        <v>335</v>
       </c>
       <c r="D107" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="E107" t="n">
         <v>20</v>
@@ -4608,21 +4986,21 @@
         <v>33</v>
       </c>
       <c r="J107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="E108" t="n">
         <v>6</v>
@@ -4640,21 +5018,21 @@
         <v>33</v>
       </c>
       <c r="J108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="D109" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="E109" t="n">
         <v>6</v>
@@ -4672,21 +5050,21 @@
         <v>33</v>
       </c>
       <c r="J109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C110" t="s">
-        <v>235</v>
+        <v>344</v>
       </c>
       <c r="D110" t="s">
-        <v>236</v>
+        <v>345</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -4704,21 +5082,21 @@
         <v>33</v>
       </c>
       <c r="J110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="D111" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="E111" t="n">
         <v>15</v>
@@ -4736,21 +5114,21 @@
         <v>33</v>
       </c>
       <c r="J111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>350</v>
       </c>
       <c r="D112" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="E112" t="n">
         <v>16</v>
@@ -4768,21 +5146,21 @@
         <v>33</v>
       </c>
       <c r="J112" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C113" t="s">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="D113" t="s">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="E113" t="n">
         <v>7</v>
@@ -4800,21 +5178,21 @@
         <v>33</v>
       </c>
       <c r="J113" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="B114" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C114" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="D114" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
       <c r="E114" t="n">
         <v>15</v>
@@ -4832,21 +5210,21 @@
         <v>33</v>
       </c>
       <c r="J114" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C115" t="s">
-        <v>245</v>
+        <v>359</v>
       </c>
       <c r="D115" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="E115" t="n">
         <v>21</v>
@@ -4864,21 +5242,21 @@
         <v>33</v>
       </c>
       <c r="J115" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="C116" t="s">
-        <v>248</v>
+        <v>363</v>
       </c>
       <c r="D116" t="s">
-        <v>249</v>
+        <v>364</v>
       </c>
       <c r="E116" t="n">
         <v>3</v>
@@ -4896,21 +5274,21 @@
         <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="C117" t="s">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="D117" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -4928,21 +5306,21 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="B118" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="C118" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="D118" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="E118" t="n">
         <v>38</v>
@@ -4960,21 +5338,21 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="C119" t="s">
-        <v>255</v>
+        <v>373</v>
       </c>
       <c r="D119" t="s">
-        <v>256</v>
+        <v>374</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -4992,21 +5370,21 @@
         <v>9</v>
       </c>
       <c r="J119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="C120" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="D120" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="E120" t="n">
         <v>2</v>
@@ -5024,21 +5402,21 @@
         <v>9</v>
       </c>
       <c r="J120" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="C121" t="s">
-        <v>259</v>
+        <v>379</v>
       </c>
       <c r="D121" t="s">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="E121" t="n">
         <v>2</v>
@@ -5056,21 +5434,21 @@
         <v>9</v>
       </c>
       <c r="J121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="B122" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>382</v>
       </c>
       <c r="D122" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
@@ -5088,21 +5466,21 @@
         <v>9</v>
       </c>
       <c r="J122" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="B123" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="C123" t="s">
-        <v>263</v>
+        <v>385</v>
       </c>
       <c r="D123" t="s">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -5120,21 +5498,21 @@
         <v>9</v>
       </c>
       <c r="J123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="B124" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="C124" t="s">
-        <v>265</v>
+        <v>388</v>
       </c>
       <c r="D124" t="s">
-        <v>266</v>
+        <v>389</v>
       </c>
       <c r="E124" t="n">
         <v>1</v>
@@ -5152,21 +5530,21 @@
         <v>9</v>
       </c>
       <c r="J124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="B125" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="C125" t="s">
-        <v>267</v>
+        <v>391</v>
       </c>
       <c r="D125" t="s">
-        <v>268</v>
+        <v>392</v>
       </c>
       <c r="E125" t="n">
         <v>2</v>
@@ -5184,21 +5562,21 @@
         <v>9</v>
       </c>
       <c r="J125" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="C126" t="s">
-        <v>269</v>
+        <v>394</v>
       </c>
       <c r="D126" t="s">
-        <v>270</v>
+        <v>395</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -5216,21 +5594,21 @@
         <v>9</v>
       </c>
       <c r="J126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="C127" t="s">
-        <v>271</v>
+        <v>397</v>
       </c>
       <c r="D127" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="E127" t="n">
         <v>2</v>
@@ -5248,7 +5626,7 @@
         <v>9</v>
       </c>
       <c r="J127" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/输出/区经区助扣罚免除.xlsx
+++ b/输出/区经区助扣罚免除.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
   <si>
     <t>城市经理</t>
   </si>
@@ -56,1162 +56,1090 @@
     <t>邓果</t>
   </si>
   <si>
+    <t>扣罚</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12190064</t>
+  </si>
+  <si>
+    <t>兰世虎</t>
+  </si>
+  <si>
     <t>免扣</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12190064</t>
-  </si>
-  <si>
-    <t>兰世虎</t>
-  </si>
-  <si>
-    <t>扣罚</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>13170021</t>
-  </si>
-  <si>
-    <t>莫钦</t>
+    <t>20240020</t>
+  </si>
+  <si>
+    <t>唐显明</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>20240020</t>
-  </si>
-  <si>
-    <t>唐显明</t>
+    <t>23260067</t>
+  </si>
+  <si>
+    <t>魏长生</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>23260067</t>
-  </si>
-  <si>
-    <t>魏长生</t>
+    <t>25260035</t>
+  </si>
+  <si>
+    <t>杨长林</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>25260035</t>
-  </si>
-  <si>
-    <t>杨长林</t>
+    <t>26120142</t>
+  </si>
+  <si>
+    <t>周列辉</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>26120142</t>
-  </si>
-  <si>
-    <t>周列辉</t>
+    <t>内蒙古大区</t>
+  </si>
+  <si>
+    <t>03120052</t>
+  </si>
+  <si>
+    <t>曹路</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>内蒙古大区</t>
-  </si>
-  <si>
-    <t>03120052</t>
-  </si>
-  <si>
-    <t>曹路</t>
+    <t>12070026</t>
+  </si>
+  <si>
+    <t>李刚刚</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>12070026</t>
-  </si>
-  <si>
-    <t>李刚刚</t>
+    <t>25260041</t>
+  </si>
+  <si>
+    <t>杨智强</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>25260041</t>
-  </si>
-  <si>
-    <t>杨智强</t>
+    <t>新疆大区</t>
+  </si>
+  <si>
+    <t>02110007</t>
+  </si>
+  <si>
+    <t>别克木尔扎·扎依尔</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>新疆大区</t>
-  </si>
-  <si>
-    <t>02110007</t>
-  </si>
-  <si>
-    <t>别克木尔扎·扎依尔</t>
+    <t>03040035</t>
+  </si>
+  <si>
+    <t>程登辉</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>03040035</t>
-  </si>
-  <si>
-    <t>程登辉</t>
+    <t>03080066</t>
+  </si>
+  <si>
+    <t>陈辉</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>03080066</t>
-  </si>
-  <si>
-    <t>陈辉</t>
+    <t>03250093</t>
+  </si>
+  <si>
+    <t>陈延林</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>03250093</t>
-  </si>
-  <si>
-    <t>陈延林</t>
+    <t>04110010</t>
+  </si>
+  <si>
+    <t>杜开</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>03260068</t>
-  </si>
-  <si>
-    <t>程自强</t>
+    <t>04240047</t>
+  </si>
+  <si>
+    <t>邓雪飞</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>04110010</t>
-  </si>
-  <si>
-    <t>杜开</t>
+    <t>04250079</t>
+  </si>
+  <si>
+    <t>党燕平</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>04120018</t>
-  </si>
-  <si>
-    <t>段磊</t>
+    <t>06230014</t>
+  </si>
+  <si>
+    <t>冯文财</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>04240047</t>
-  </si>
-  <si>
-    <t>邓雪飞</t>
+    <t>08080043</t>
+  </si>
+  <si>
+    <t>何好</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>04250079</t>
-  </si>
-  <si>
-    <t>党燕平</t>
+    <t>08100085</t>
+  </si>
+  <si>
+    <t>胡佳冰</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>06230014</t>
-  </si>
-  <si>
-    <t>冯文财</t>
+    <t>08240143</t>
+  </si>
+  <si>
+    <t>韩潇</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>08080043</t>
-  </si>
-  <si>
-    <t>何好</t>
+    <t>08260079</t>
+  </si>
+  <si>
+    <t>胡忠旺</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>08100085</t>
-  </si>
-  <si>
-    <t>胡佳冰</t>
+    <t>12030071</t>
+  </si>
+  <si>
+    <t>李成龙</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>08170046</t>
-  </si>
-  <si>
-    <t>黄巧</t>
+    <t>12100406</t>
+  </si>
+  <si>
+    <t>林静</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>08260079</t>
-  </si>
-  <si>
-    <t>胡忠旺</t>
+    <t>12160065</t>
+  </si>
+  <si>
+    <t>李攀</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>12030071</t>
-  </si>
-  <si>
-    <t>李成龙</t>
+    <t>12190182</t>
+  </si>
+  <si>
+    <t>李仕兴</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>12100406</t>
-  </si>
-  <si>
-    <t>林静</t>
+    <t>12240182</t>
+  </si>
+  <si>
+    <t>刘雪剑</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>12160065</t>
-  </si>
-  <si>
-    <t>李攀</t>
+    <t>12250483</t>
+  </si>
+  <si>
+    <t>赖艳</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>12190182</t>
-  </si>
-  <si>
-    <t>李仕兴</t>
+    <t>13060006</t>
+  </si>
+  <si>
+    <t>马飞</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>12250483</t>
-  </si>
-  <si>
-    <t>赖艳</t>
+    <t>13100060</t>
+  </si>
+  <si>
+    <t>马继云</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>13060006</t>
-  </si>
-  <si>
-    <t>马飞</t>
+    <t>13120052</t>
+  </si>
+  <si>
+    <t>马丽娜</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>13100060</t>
-  </si>
-  <si>
-    <t>马继云</t>
+    <t>13180006</t>
+  </si>
+  <si>
+    <t>莫锐</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>13120052</t>
-  </si>
-  <si>
-    <t>马丽娜</t>
+    <t>13180009</t>
+  </si>
+  <si>
+    <t>马锐</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>13180006</t>
-  </si>
-  <si>
-    <t>莫锐</t>
+    <t>13190025</t>
+  </si>
+  <si>
+    <t>毛诗浩</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>13180009</t>
-  </si>
-  <si>
-    <t>马锐</t>
+    <t>13230007</t>
+  </si>
+  <si>
+    <t>马文涛</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>13190025</t>
-  </si>
-  <si>
-    <t>毛诗浩</t>
+    <t>13230011</t>
+  </si>
+  <si>
+    <t>买吾拉尼·吐尔逊</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>13230007</t>
-  </si>
-  <si>
-    <t>马文涛</t>
+    <t>17100016</t>
+  </si>
+  <si>
+    <t>卿继蓬</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>13230011</t>
-  </si>
-  <si>
-    <t>买吾拉尼·吐尔逊</t>
+    <t>18250023</t>
+  </si>
+  <si>
+    <t>任永佳</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>13260012</t>
-  </si>
-  <si>
-    <t>马宗魁</t>
+    <t>19160015</t>
+  </si>
+  <si>
+    <t>孙鹏翔</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>17100016</t>
-  </si>
-  <si>
-    <t>卿继蓬</t>
+    <t>19240061</t>
+  </si>
+  <si>
+    <t>盛学良</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>19160015</t>
-  </si>
-  <si>
-    <t>孙鹏翔</t>
+    <t>23120162</t>
+  </si>
+  <si>
+    <t>吴磊</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>19240061</t>
-  </si>
-  <si>
-    <t>盛学良</t>
+    <t>23130058</t>
+  </si>
+  <si>
+    <t>王明</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>23120162</t>
-  </si>
-  <si>
-    <t>吴磊</t>
+    <t>23130064</t>
+  </si>
+  <si>
+    <t>魏明刚</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>23130058</t>
-  </si>
-  <si>
-    <t>王明</t>
+    <t>23170097</t>
+  </si>
+  <si>
+    <t>王琦</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>23130064</t>
-  </si>
-  <si>
-    <t>魏明刚</t>
+    <t>23200002</t>
+  </si>
+  <si>
+    <t>王滔</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>23170097</t>
-  </si>
-  <si>
-    <t>王琦</t>
+    <t>23240210</t>
+  </si>
+  <si>
+    <t>王兴杰</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>23200002</t>
-  </si>
-  <si>
-    <t>王滔</t>
+    <t>23250234</t>
+  </si>
+  <si>
+    <t>王燕群</t>
   </si>
   <si>
     <t>46</t>
   </si>
   <si>
-    <t>23240210</t>
-  </si>
-  <si>
-    <t>王兴杰</t>
+    <t>23250352</t>
+  </si>
+  <si>
+    <t>武亚文</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>23250234</t>
-  </si>
-  <si>
-    <t>王燕群</t>
+    <t>23260141</t>
+  </si>
+  <si>
+    <t>王志伟</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>23250352</t>
-  </si>
-  <si>
-    <t>武亚文</t>
+    <t>23260175</t>
+  </si>
+  <si>
+    <t>王中宇</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>23260141</t>
-  </si>
-  <si>
-    <t>王志伟</t>
+    <t>24080056</t>
+  </si>
+  <si>
+    <t>徐辉</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>23260175</t>
-  </si>
-  <si>
-    <t>王中宇</t>
+    <t>25110024</t>
+  </si>
+  <si>
+    <t>杨凯</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>25110024</t>
-  </si>
-  <si>
-    <t>杨凯</t>
+    <t>25110045</t>
+  </si>
+  <si>
+    <t>姚昆</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t>25110045</t>
-  </si>
-  <si>
-    <t>姚昆</t>
+    <t>26020047</t>
+  </si>
+  <si>
+    <t>周兵</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>26020047</t>
-  </si>
-  <si>
-    <t>周兵</t>
+    <t>26030047</t>
+  </si>
+  <si>
+    <t>周承军</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>26030047</t>
-  </si>
-  <si>
-    <t>周承军</t>
+    <t>26080137</t>
+  </si>
+  <si>
+    <t>张浩</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>26030079</t>
-  </si>
-  <si>
-    <t>张超</t>
+    <t>26100202</t>
+  </si>
+  <si>
+    <t>张俊杰</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>26080137</t>
-  </si>
-  <si>
-    <t>张浩</t>
+    <t>26120279</t>
+  </si>
+  <si>
+    <t>郑利刚</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>26100202</t>
-  </si>
-  <si>
-    <t>张俊杰</t>
+    <t>26240167</t>
+  </si>
+  <si>
+    <t>张新明</t>
   </si>
   <si>
     <t>58</t>
   </si>
   <si>
-    <t>26120279</t>
-  </si>
-  <si>
-    <t>郑利刚</t>
+    <t>26250307</t>
+  </si>
+  <si>
+    <t>张元兵</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>26240167</t>
-  </si>
-  <si>
-    <t>张新明</t>
+    <t>26250381</t>
+  </si>
+  <si>
+    <t>遭永成</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>26250307</t>
-  </si>
-  <si>
-    <t>张元兵</t>
+    <t>26250388</t>
+  </si>
+  <si>
+    <t>周燕</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>26250381</t>
-  </si>
-  <si>
-    <t>遭永成</t>
+    <t>26250421</t>
+  </si>
+  <si>
+    <t>张勇</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
-    <t>26250388</t>
-  </si>
-  <si>
-    <t>周燕</t>
+    <t>河南大区</t>
+  </si>
+  <si>
+    <t>12100083</t>
+  </si>
+  <si>
+    <t>梁家辉</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>26250421</t>
-  </si>
-  <si>
-    <t>张勇</t>
+    <t>海南大区</t>
+  </si>
+  <si>
+    <t>03260052</t>
+  </si>
+  <si>
+    <t>陈招文</t>
   </si>
   <si>
     <t>64</t>
   </si>
   <si>
-    <t>河南大区</t>
-  </si>
-  <si>
-    <t>12100083</t>
-  </si>
-  <si>
-    <t>梁家辉</t>
+    <t>07190038</t>
+  </si>
+  <si>
+    <t>甘善泽</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>海南大区</t>
-  </si>
-  <si>
-    <t>03260052</t>
-  </si>
-  <si>
-    <t>陈招文</t>
+    <t>12250413</t>
+  </si>
+  <si>
+    <t>林应帅</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t>07190038</t>
-  </si>
-  <si>
-    <t>甘善泽</t>
+    <t>23170073</t>
+  </si>
+  <si>
+    <t>王群斯</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>12100481</t>
-  </si>
-  <si>
-    <t>李佳</t>
+    <t>23230071</t>
+  </si>
+  <si>
+    <t>王婉莉</t>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
-    <t>12250413</t>
-  </si>
-  <si>
-    <t>林应帅</t>
+    <t>26060058</t>
+  </si>
+  <si>
+    <t>张峰</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>23170073</t>
-  </si>
-  <si>
-    <t>王群斯</t>
+    <t>26080146</t>
+  </si>
+  <si>
+    <t>朱海龙</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>23230071</t>
-  </si>
-  <si>
-    <t>王婉莉</t>
+    <t>甘肃大区</t>
+  </si>
+  <si>
+    <t>19020017</t>
+  </si>
+  <si>
+    <t>宋斌</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>26060058</t>
-  </si>
-  <si>
-    <t>张峰</t>
+    <t>26100136</t>
+  </si>
+  <si>
+    <t>朱军伟</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
-    <t>26080146</t>
-  </si>
-  <si>
-    <t>朱海龙</t>
+    <t>26250110</t>
+  </si>
+  <si>
+    <t>周永刚</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
-    <t>甘肃大区</t>
-  </si>
-  <si>
-    <t>12200029</t>
-  </si>
-  <si>
-    <t>李天鹏</t>
+    <t>西藏大区</t>
+  </si>
+  <si>
+    <t>19040037</t>
+  </si>
+  <si>
+    <t>盛玬玛</t>
   </si>
   <si>
     <t>74</t>
   </si>
   <si>
-    <t>19020017</t>
-  </si>
-  <si>
-    <t>宋斌</t>
+    <t>26240321</t>
+  </si>
+  <si>
+    <t>郑向阳</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>26100136</t>
-  </si>
-  <si>
-    <t>朱军伟</t>
+    <t>贵州大区</t>
+  </si>
+  <si>
+    <t>02030001</t>
+  </si>
+  <si>
+    <t>柏超</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>26250110</t>
-  </si>
-  <si>
-    <t>周永刚</t>
+    <t>02170003</t>
+  </si>
+  <si>
+    <t>柏黔岽</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>西藏大区</t>
-  </si>
-  <si>
-    <t>13010008</t>
-  </si>
-  <si>
-    <t>马艾布</t>
+    <t>02240005</t>
+  </si>
+  <si>
+    <t>鲍星</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>18020001</t>
-  </si>
-  <si>
-    <t>冉宝</t>
+    <t>03030001</t>
+  </si>
+  <si>
+    <t>陈朝勇</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>19040037</t>
-  </si>
-  <si>
-    <t>盛玬玛</t>
+    <t>03080036</t>
+  </si>
+  <si>
+    <t>曾辉</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>26120068</t>
-  </si>
-  <si>
-    <t>朱琳</t>
+    <t>03100091</t>
+  </si>
+  <si>
+    <t>程俊铭</t>
   </si>
   <si>
     <t>81</t>
   </si>
   <si>
-    <t>贵州大区</t>
-  </si>
-  <si>
-    <t>02030001</t>
-  </si>
-  <si>
-    <t>柏超</t>
+    <t>03230023</t>
+  </si>
+  <si>
+    <t>曾伟</t>
   </si>
   <si>
     <t>82</t>
   </si>
   <si>
-    <t>02170003</t>
-  </si>
-  <si>
-    <t>柏黔岽</t>
+    <t>03240018</t>
+  </si>
+  <si>
+    <t>陈璇</t>
   </si>
   <si>
     <t>83</t>
   </si>
   <si>
-    <t>02240005</t>
-  </si>
-  <si>
-    <t>鲍星</t>
+    <t>04080038</t>
+  </si>
+  <si>
+    <t>杜海</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>03030001</t>
-  </si>
-  <si>
-    <t>陈朝勇</t>
+    <t>06250007</t>
+  </si>
+  <si>
+    <t>冯永浩东</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
-    <t>03080036</t>
-  </si>
-  <si>
-    <t>曾辉</t>
+    <t>07260030</t>
+  </si>
+  <si>
+    <t>郭长进</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>03100091</t>
-  </si>
-  <si>
-    <t>程俊铭</t>
+    <t>12130020</t>
+  </si>
+  <si>
+    <t>刘明杰</t>
   </si>
   <si>
     <t>87</t>
   </si>
   <si>
-    <t>03230023</t>
-  </si>
-  <si>
-    <t>曾伟</t>
+    <t>12170004</t>
+  </si>
+  <si>
+    <t>隆黔钧</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>03240018</t>
-  </si>
-  <si>
-    <t>陈璇</t>
+    <t>12240324</t>
+  </si>
+  <si>
+    <t>吕鑫</t>
   </si>
   <si>
     <t>89</t>
   </si>
   <si>
-    <t>04080038</t>
-  </si>
-  <si>
-    <t>杜海</t>
+    <t>13040003</t>
+  </si>
+  <si>
+    <t>蒙丹</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>06250007</t>
-  </si>
-  <si>
-    <t>冯永浩东</t>
+    <t>17250016</t>
+  </si>
+  <si>
+    <t>钱宇</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>07260030</t>
-  </si>
-  <si>
-    <t>郭长进</t>
+    <t>18120006</t>
+  </si>
+  <si>
+    <t>冉龙科</t>
   </si>
   <si>
     <t>92</t>
   </si>
   <si>
-    <t>12130020</t>
-  </si>
-  <si>
-    <t>刘明杰</t>
+    <t>23040067</t>
+  </si>
+  <si>
+    <t>吴迪</t>
   </si>
   <si>
     <t>93</t>
   </si>
   <si>
-    <t>12170004</t>
-  </si>
-  <si>
-    <t>隆黔钧</t>
+    <t>23060007</t>
+  </si>
+  <si>
+    <t>王福海</t>
   </si>
   <si>
     <t>94</t>
   </si>
   <si>
-    <t>12240324</t>
-  </si>
-  <si>
-    <t>吕鑫</t>
+    <t>23080028</t>
+  </si>
+  <si>
+    <t>王华</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>13040003</t>
-  </si>
-  <si>
-    <t>蒙丹</t>
+    <t>23100018</t>
+  </si>
+  <si>
+    <t>伍晶</t>
   </si>
   <si>
     <t>96</t>
   </si>
   <si>
-    <t>17250016</t>
-  </si>
-  <si>
-    <t>钱宇</t>
+    <t>23250401</t>
+  </si>
+  <si>
+    <t>王永辉</t>
   </si>
   <si>
     <t>97</t>
   </si>
   <si>
-    <t>18120006</t>
-  </si>
-  <si>
-    <t>冉龙科</t>
+    <t>24060009</t>
+  </si>
+  <si>
+    <t>徐发刚</t>
   </si>
   <si>
     <t>98</t>
   </si>
   <si>
-    <t>23040067</t>
-  </si>
-  <si>
-    <t>吴迪</t>
+    <t>24260027</t>
+  </si>
+  <si>
+    <t>许忠漭</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>23060007</t>
-  </si>
-  <si>
-    <t>王福海</t>
+    <t>25020038</t>
+  </si>
+  <si>
+    <t>易斌</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>23080028</t>
-  </si>
-  <si>
-    <t>王华</t>
+    <t>25040006</t>
+  </si>
+  <si>
+    <t>犹敦信</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>23100018</t>
-  </si>
-  <si>
-    <t>伍晶</t>
+    <t>25120103</t>
+  </si>
+  <si>
+    <t>杨龙</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>23250401</t>
-  </si>
-  <si>
-    <t>王永辉</t>
+    <t>25190009</t>
+  </si>
+  <si>
+    <t>余松绩</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>24060009</t>
-  </si>
-  <si>
-    <t>徐发刚</t>
+    <t>26010001</t>
+  </si>
+  <si>
+    <t>周安江</t>
   </si>
   <si>
     <t>104</t>
   </si>
   <si>
-    <t>24260027</t>
-  </si>
-  <si>
-    <t>许忠漭</t>
+    <t>26040028</t>
+  </si>
+  <si>
+    <t>朱达松</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>25020038</t>
-  </si>
-  <si>
-    <t>易斌</t>
+    <t>26100036</t>
+  </si>
+  <si>
+    <t>邹杰</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
-    <t>25040006</t>
-  </si>
-  <si>
-    <t>犹敦信</t>
+    <t>26170011</t>
+  </si>
+  <si>
+    <t>张强</t>
   </si>
   <si>
     <t>107</t>
   </si>
   <si>
-    <t>25120103</t>
-  </si>
-  <si>
-    <t>杨龙</t>
+    <t>26240029</t>
+  </si>
+  <si>
+    <t>邹幸朋</t>
   </si>
   <si>
     <t>108</t>
   </si>
   <si>
-    <t>25190009</t>
-  </si>
-  <si>
-    <t>余松绩</t>
+    <t>陕西大区</t>
+  </si>
+  <si>
+    <t>04160003</t>
+  </si>
+  <si>
+    <t>董攀妮</t>
   </si>
   <si>
     <t>109</t>
   </si>
   <si>
-    <t>26010001</t>
-  </si>
-  <si>
-    <t>周安江</t>
+    <t>10080045</t>
+  </si>
+  <si>
+    <t>井海</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>26040028</t>
-  </si>
-  <si>
-    <t>朱达松</t>
+    <t>12250053</t>
+  </si>
+  <si>
+    <t>林雅琼</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>26100036</t>
-  </si>
-  <si>
-    <t>邹杰</t>
+    <t>黑龙江大区</t>
+  </si>
+  <si>
+    <t>07120068</t>
+  </si>
+  <si>
+    <t>高丽莉</t>
   </si>
   <si>
     <t>112</t>
   </si>
   <si>
-    <t>26170011</t>
-  </si>
-  <si>
-    <t>张强</t>
+    <t>12120291</t>
+  </si>
+  <si>
+    <t>吕龙</t>
   </si>
   <si>
     <t>113</t>
   </si>
   <si>
-    <t>26240029</t>
-  </si>
-  <si>
-    <t>邹幸朋</t>
+    <t>19230046</t>
+  </si>
+  <si>
+    <t>孙文萍</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>陕西大区</t>
-  </si>
-  <si>
-    <t>04160003</t>
-  </si>
-  <si>
-    <t>董攀妮</t>
+    <t>23100284</t>
+  </si>
+  <si>
+    <t>王嘉雷</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>10080045</t>
-  </si>
-  <si>
-    <t>井海</t>
+    <t>23240311</t>
+  </si>
+  <si>
+    <t>王小丽</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>12250053</t>
-  </si>
-  <si>
-    <t>林雅琼</t>
+    <t>25110055</t>
+  </si>
+  <si>
+    <t>伊可鑫</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>黑龙江大区</t>
-  </si>
-  <si>
-    <t>07120068</t>
-  </si>
-  <si>
-    <t>高丽莉</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>12120291</t>
-  </si>
-  <si>
-    <t>吕龙</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>19230046</t>
-  </si>
-  <si>
-    <t>孙文萍</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>23100284</t>
-  </si>
-  <si>
-    <t>王嘉雷</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>23240311</t>
-  </si>
-  <si>
-    <t>王小丽</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>25110055</t>
-  </si>
-  <si>
-    <t>伊可鑫</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>26120368</t>
   </si>
   <si>
     <t>赵力</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>26230161</t>
-  </si>
-  <si>
-    <t>周伟玲</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>26250493</t>
-  </si>
-  <si>
-    <t>张影</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1611,19 +1539,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>104</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
-        <v>198</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.02525252525252525</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -1643,19 +1571,19 @@
         <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05303030303030303</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -1675,19 +1603,19 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06578947368421052</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1707,22 +1635,22 @@
         <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1739,19 +1667,19 @@
         <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>272</v>
+        <v>92</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05147058823529412</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1771,22 +1699,22 @@
         <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03896103896103896</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1794,39 +1722,39 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>343</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02623906705539359</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" t="n">
-        <v>205</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06341463414634146</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1835,16 +1763,16 @@
         <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02099737532808399</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -1858,7 +1786,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -1867,22 +1795,22 @@
         <v>39</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>283</v>
+        <v>148</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0176678445229682</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1890,39 +1818,39 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01418439716312057</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
@@ -1931,22 +1859,22 @@
         <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>425</v>
+        <v>290</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04470588235294118</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="H12" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1954,7 +1882,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -1963,22 +1891,22 @@
         <v>49</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>452</v>
+        <v>90</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03097345132743363</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1986,7 +1914,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -1995,19 +1923,19 @@
         <v>52</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G14" t="n">
-        <v>0.053475935828877</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="H14" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -2018,7 +1946,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -2027,19 +1955,19 @@
         <v>55</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.008</v>
       </c>
       <c r="H15" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -2050,7 +1978,7 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
@@ -2059,22 +1987,22 @@
         <v>58</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
-        <v>88</v>
+        <v>397</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.05793450881612091</v>
       </c>
       <c r="H16" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2082,7 +2010,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -2091,19 +2019,19 @@
         <v>61</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>209</v>
+        <v>443</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0861244019138756</v>
+        <v>0.02031602708803612</v>
       </c>
       <c r="H17" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -2114,7 +2042,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -2123,19 +2051,19 @@
         <v>64</v>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>784</v>
+        <v>120</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06377551020408163</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -2146,7 +2074,7 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -2155,19 +2083,19 @@
         <v>67</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07067137809187279</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="H19" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I19" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -2178,7 +2106,7 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -2187,22 +2115,22 @@
         <v>70</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>530</v>
+        <v>226</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="H20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I20" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2210,7 +2138,7 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
@@ -2219,19 +2147,19 @@
         <v>73</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -2242,7 +2170,7 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>75</v>
@@ -2251,22 +2179,22 @@
         <v>76</v>
       </c>
       <c r="E22" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>461</v>
+        <v>198</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03904555314533623</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I22" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2274,7 +2202,7 @@
         <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>78</v>
@@ -2283,22 +2211,22 @@
         <v>79</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03088803088803089</v>
+        <v>0.03</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I23" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2306,7 +2234,7 @@
         <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>81</v>
@@ -2315,22 +2243,22 @@
         <v>82</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="H24" t="n">
         <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2338,7 +2266,7 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>84</v>
@@ -2347,22 +2275,22 @@
         <v>85</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.01132075471698113</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2370,7 +2298,7 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>87</v>
@@ -2379,22 +2307,22 @@
         <v>88</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F26" t="n">
-        <v>241</v>
+        <v>653</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04564315352697095</v>
+        <v>0.05666156202143951</v>
       </c>
       <c r="H26" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I26" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2402,7 +2330,7 @@
         <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>90</v>
@@ -2411,22 +2339,22 @@
         <v>91</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="H27" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2434,7 +2362,7 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>93</v>
@@ -2446,16 +2374,16 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="G28" t="n">
-        <v>0.033003300330033</v>
+        <v>0.04032258064516129</v>
       </c>
       <c r="H28" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
         <v>13</v>
@@ -2466,7 +2394,7 @@
         <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>96</v>
@@ -2475,22 +2403,22 @@
         <v>97</v>
       </c>
       <c r="E29" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>711</v>
+        <v>212</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06047819971870605</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="H29" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I29" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2498,7 +2426,7 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>99</v>
@@ -2507,19 +2435,19 @@
         <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02317880794701987</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
@@ -2530,7 +2458,7 @@
         <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>102</v>
@@ -2539,22 +2467,22 @@
         <v>103</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05434782608695652</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="H31" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I31" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2562,7 +2490,7 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>105</v>
@@ -2571,22 +2499,22 @@
         <v>106</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F32" t="n">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06832298136645963</v>
+        <v>0.06199460916442048</v>
       </c>
       <c r="H32" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I32" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2594,7 +2522,7 @@
         <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>108</v>
@@ -2603,19 +2531,19 @@
         <v>109</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06122448979591837</v>
+        <v>0.01</v>
       </c>
       <c r="H33" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s">
         <v>17</v>
@@ -2626,7 +2554,7 @@
         <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>111</v>
@@ -2635,22 +2563,22 @@
         <v>112</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>420</v>
+        <v>208</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="H34" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I34" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2658,7 +2586,7 @@
         <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>114</v>
@@ -2667,22 +2595,22 @@
         <v>115</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.01597444089456869</v>
       </c>
       <c r="H35" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I35" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2690,7 +2618,7 @@
         <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>117</v>
@@ -2699,19 +2627,19 @@
         <v>118</v>
       </c>
       <c r="E36" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F36" t="n">
-        <v>227</v>
+        <v>499</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03964757709251102</v>
+        <v>0.04008016032064128</v>
       </c>
       <c r="H36" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I36" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
@@ -2722,7 +2650,7 @@
         <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>120</v>
@@ -2731,19 +2659,19 @@
         <v>121</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>262</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.1</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I37" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
@@ -2754,7 +2682,7 @@
         <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>123</v>
@@ -2763,19 +2691,19 @@
         <v>124</v>
       </c>
       <c r="E38" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>682</v>
+        <v>244</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03372434017595308</v>
+        <v>0.03688524590163934</v>
       </c>
       <c r="H38" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I38" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
@@ -2786,7 +2714,7 @@
         <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
         <v>126</v>
@@ -2795,22 +2723,22 @@
         <v>127</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>151</v>
+        <v>316</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02649006622516556</v>
+        <v>0.003164556962025316</v>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2818,7 +2746,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
         <v>129</v>
@@ -2827,22 +2755,22 @@
         <v>130</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
+        <v>71</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.02816901408450704</v>
+      </c>
+      <c r="H40" t="n">
         <v>23</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="H40" t="n">
-        <v>28</v>
-      </c>
       <c r="I40" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2850,7 +2778,7 @@
         <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
         <v>132</v>
@@ -2859,19 +2787,19 @@
         <v>133</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>540</v>
+        <v>416</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I41" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s">
         <v>13</v>
@@ -2882,7 +2810,7 @@
         <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>135</v>
@@ -2891,22 +2819,22 @@
         <v>136</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="I42" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2914,7 +2842,7 @@
         <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>138</v>
@@ -2923,22 +2851,22 @@
         <v>139</v>
       </c>
       <c r="E43" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
-        <v>489</v>
+        <v>246</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07770961145194274</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="H43" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I43" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2946,7 +2874,7 @@
         <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
         <v>141</v>
@@ -2955,22 +2883,22 @@
         <v>142</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01339285714285714</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I44" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2978,7 +2906,7 @@
         <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
         <v>144</v>
@@ -2987,19 +2915,19 @@
         <v>145</v>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F45" t="n">
-        <v>286</v>
+        <v>655</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.04122137404580153</v>
       </c>
       <c r="H45" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I45" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s">
         <v>13</v>
@@ -3010,7 +2938,7 @@
         <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
         <v>147</v>
@@ -3019,19 +2947,19 @@
         <v>148</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="H46" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
@@ -3042,7 +2970,7 @@
         <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
         <v>150</v>
@@ -3051,22 +2979,22 @@
         <v>151</v>
       </c>
       <c r="E47" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>640</v>
+        <v>150</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0328125</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I47" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3074,7 +3002,7 @@
         <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
         <v>153</v>
@@ -3083,22 +3011,22 @@
         <v>154</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04375</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="H48" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I48" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3106,7 +3034,7 @@
         <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
         <v>156</v>
@@ -3115,19 +3043,19 @@
         <v>157</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05617977528089887</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="H49" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
@@ -3138,7 +3066,7 @@
         <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
         <v>159</v>
@@ -3147,22 +3075,22 @@
         <v>160</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F50" t="n">
-        <v>265</v>
+        <v>637</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02641509433962264</v>
+        <v>0.03610675039246468</v>
       </c>
       <c r="H50" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I50" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3170,7 +3098,7 @@
         <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
         <v>162</v>
@@ -3179,22 +3107,22 @@
         <v>163</v>
       </c>
       <c r="E51" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="H51" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I51" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3202,7 +3130,7 @@
         <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
         <v>165</v>
@@ -3211,22 +3139,22 @@
         <v>166</v>
       </c>
       <c r="E52" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>391</v>
+        <v>187</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="H52" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I52" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3234,7 +3162,7 @@
         <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
         <v>168</v>
@@ -3246,19 +3174,19 @@
         <v>8</v>
       </c>
       <c r="F53" t="n">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03162055335968379</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="H53" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I53" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3266,7 +3194,7 @@
         <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
         <v>171</v>
@@ -3275,22 +3203,22 @@
         <v>172</v>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03548387096774194</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="H54" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I54" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3298,7 +3226,7 @@
         <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
         <v>174</v>
@@ -3307,22 +3235,22 @@
         <v>175</v>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04104477611940299</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="H55" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I55" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3330,7 +3258,7 @@
         <v>176</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
         <v>177</v>
@@ -3339,19 +3267,19 @@
         <v>178</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="H56" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I56" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J56" t="s">
         <v>13</v>
@@ -3362,7 +3290,7 @@
         <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
         <v>180</v>
@@ -3371,19 +3299,19 @@
         <v>181</v>
       </c>
       <c r="E57" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F57" t="n">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04864864864864865</v>
+        <v>0.02827763496143959</v>
       </c>
       <c r="H57" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I57" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
@@ -3394,7 +3322,7 @@
         <v>182</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
         <v>183</v>
@@ -3403,22 +3331,22 @@
         <v>184</v>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="H58" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I58" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3426,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
         <v>186</v>
@@ -3435,22 +3363,22 @@
         <v>187</v>
       </c>
       <c r="E59" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>742</v>
+        <v>169</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0431266846361186</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="H59" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I59" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3458,7 +3386,7 @@
         <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
         <v>189</v>
@@ -3470,16 +3398,16 @@
         <v>8</v>
       </c>
       <c r="F60" t="n">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="H60" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I60" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s">
         <v>13</v>
@@ -3490,7 +3418,7 @@
         <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
         <v>192</v>
@@ -3499,19 +3427,19 @@
         <v>193</v>
       </c>
       <c r="E61" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0694006309148265</v>
+        <v>0.02966101694915254</v>
       </c>
       <c r="H61" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I61" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -3522,7 +3450,7 @@
         <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
         <v>195</v>
@@ -3531,19 +3459,19 @@
         <v>196</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F62" t="n">
-        <v>316</v>
+        <v>162</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03481012658227848</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="H62" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I62" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s">
         <v>13</v>
@@ -3554,7 +3482,7 @@
         <v>197</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
         <v>198</v>
@@ -3563,22 +3491,22 @@
         <v>199</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
-        <v>427</v>
+        <v>263</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.03041825095057034</v>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I63" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3586,28 +3514,28 @@
         <v>200</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E64" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>371</v>
+        <v>108</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07816711590296496</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="H64" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>17</v>
@@ -3615,31 +3543,31 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F65" t="n">
-        <v>158</v>
+        <v>621</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05696202531645569</v>
+        <v>0.03059581320450886</v>
       </c>
       <c r="H65" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
@@ -3647,31 +3575,31 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F66" t="n">
-        <v>85</v>
+        <v>379</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.03430079155672823</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J66" t="s">
         <v>13</v>
@@ -3679,10 +3607,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
         <v>212</v>
@@ -3691,22 +3619,22 @@
         <v>213</v>
       </c>
       <c r="E67" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>721</v>
+        <v>159</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01941747572815534</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3714,7 +3642,7 @@
         <v>214</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
         <v>215</v>
@@ -3726,16 +3654,16 @@
         <v>11</v>
       </c>
       <c r="F68" t="n">
-        <v>252</v>
+        <v>360</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04365079365079365</v>
+        <v>0.03055555555555555</v>
       </c>
       <c r="H68" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
@@ -3746,7 +3674,7 @@
         <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
         <v>218</v>
@@ -3755,22 +3683,22 @@
         <v>219</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F69" t="n">
-        <v>134</v>
+        <v>514</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02985074626865672</v>
+        <v>0.03501945525291829</v>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J69" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3778,7 +3706,7 @@
         <v>220</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
         <v>221</v>
@@ -3787,22 +3715,22 @@
         <v>222</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02597402597402598</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="H70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J70" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3810,7 +3738,7 @@
         <v>223</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
         <v>224</v>
@@ -3819,19 +3747,19 @@
         <v>225</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>477</v>
+        <v>158</v>
       </c>
       <c r="G71" t="n">
-        <v>0.008385744234800839</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J71" t="s">
         <v>13</v>
@@ -3842,124 +3770,124 @@
         <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0171990171990172</v>
+        <v>0.04</v>
       </c>
       <c r="H72" t="n">
         <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0273972602739726</v>
+        <v>0.03692307692307693</v>
       </c>
       <c r="H73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F74" t="n">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04201680672268908</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="H74" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>297</v>
+        <v>183</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03367003367003367</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="H75" t="n">
         <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>13</v>
@@ -3967,63 +3895,63 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D77" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F77" t="n">
-        <v>240</v>
+        <v>602</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0375</v>
+        <v>0.02491694352159468</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J77" t="s">
         <v>17</v>
@@ -4031,159 +3959,159 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E78" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07368421052631578</v>
+        <v>0.0488599348534202</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J78" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E79" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F79" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07168458781362007</v>
+        <v>0.04332129963898917</v>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J79" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D80" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C81" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>179</v>
+        <v>467</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05027932960893855</v>
+        <v>0.02141327623126338</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J81" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E82" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06796116504854369</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J82" t="s">
         <v>17</v>
@@ -4191,10 +4119,10 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
         <v>263</v>
@@ -4203,22 +4131,22 @@
         <v>264</v>
       </c>
       <c r="E83" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>705</v>
+        <v>60</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03829787234042553</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4226,7 +4154,7 @@
         <v>265</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
         <v>266</v>
@@ -4235,22 +4163,22 @@
         <v>267</v>
       </c>
       <c r="E84" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F84" t="n">
-        <v>406</v>
+        <v>283</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.04240282685512368</v>
       </c>
       <c r="H84" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I84" t="n">
         <v>33</v>
       </c>
       <c r="J84" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4258,7 +4186,7 @@
         <v>268</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C85" t="s">
         <v>269</v>
@@ -4270,13 +4198,13 @@
         <v>12</v>
       </c>
       <c r="F85" t="n">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03603603603603604</v>
+        <v>0.04562737642585551</v>
       </c>
       <c r="H85" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I85" t="n">
         <v>33</v>
@@ -4290,7 +4218,7 @@
         <v>271</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C86" t="s">
         <v>272</v>
@@ -4299,22 +4227,22 @@
         <v>273</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03529411764705882</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="H86" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
         <v>33</v>
       </c>
       <c r="J86" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4322,7 +4250,7 @@
         <v>274</v>
       </c>
       <c r="B87" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s">
         <v>275</v>
@@ -4331,16 +4259,16 @@
         <v>276</v>
       </c>
       <c r="E87" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
-        <v>509</v>
+        <v>106</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03143418467583497</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="H87" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I87" t="n">
         <v>33</v>
@@ -4354,7 +4282,7 @@
         <v>277</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
         <v>278</v>
@@ -4366,19 +4294,19 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02723735408560311</v>
+        <v>0.02147239263803681</v>
       </c>
       <c r="H88" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I88" t="n">
         <v>33</v>
       </c>
       <c r="J88" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4386,7 +4314,7 @@
         <v>280</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C89" t="s">
         <v>281</v>
@@ -4395,16 +4323,16 @@
         <v>282</v>
       </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0975609756097561</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
         <v>33</v>
@@ -4418,7 +4346,7 @@
         <v>283</v>
       </c>
       <c r="B90" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C90" t="s">
         <v>284</v>
@@ -4427,16 +4355,16 @@
         <v>285</v>
       </c>
       <c r="E90" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04047619047619048</v>
+        <v>0.02006688963210702</v>
       </c>
       <c r="H90" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I90" t="n">
         <v>33</v>
@@ -4450,7 +4378,7 @@
         <v>286</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C91" t="s">
         <v>287</v>
@@ -4459,16 +4387,16 @@
         <v>288</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>283</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02120141342756184</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I91" t="n">
         <v>33</v>
@@ -4482,7 +4410,7 @@
         <v>289</v>
       </c>
       <c r="B92" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C92" t="s">
         <v>290</v>
@@ -4491,22 +4419,22 @@
         <v>291</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F92" t="n">
-        <v>108</v>
+        <v>580</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="H92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I92" t="n">
         <v>33</v>
       </c>
       <c r="J92" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4514,7 +4442,7 @@
         <v>292</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C93" t="s">
         <v>293</v>
@@ -4523,16 +4451,16 @@
         <v>294</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.04790419161676647</v>
       </c>
       <c r="H93" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I93" t="n">
         <v>33</v>
@@ -4546,7 +4474,7 @@
         <v>295</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C94" t="s">
         <v>296</v>
@@ -4555,16 +4483,16 @@
         <v>297</v>
       </c>
       <c r="E94" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>409</v>
+        <v>56</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04156479217603912</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="H94" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I94" t="n">
         <v>33</v>
@@ -4578,7 +4506,7 @@
         <v>298</v>
       </c>
       <c r="B95" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s">
         <v>299</v>
@@ -4587,22 +4515,22 @@
         <v>300</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02868852459016394</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I95" t="n">
         <v>33</v>
       </c>
       <c r="J95" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4610,7 +4538,7 @@
         <v>301</v>
       </c>
       <c r="B96" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C96" t="s">
         <v>302</v>
@@ -4619,16 +4547,16 @@
         <v>303</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04065040650406504</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="H96" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I96" t="n">
         <v>33</v>
@@ -4642,7 +4570,7 @@
         <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C97" t="s">
         <v>305</v>
@@ -4651,13 +4579,13 @@
         <v>306</v>
       </c>
       <c r="E97" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F97" t="n">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="G97" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="H97" t="n">
         <v>31</v>
@@ -4666,7 +4594,7 @@
         <v>33</v>
       </c>
       <c r="J97" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4674,7 +4602,7 @@
         <v>307</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C98" t="s">
         <v>308</v>
@@ -4683,16 +4611,16 @@
         <v>309</v>
       </c>
       <c r="E98" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F98" t="n">
-        <v>675</v>
+        <v>164</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02518518518518519</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="I98" t="n">
         <v>33</v>
@@ -4706,7 +4634,7 @@
         <v>310</v>
       </c>
       <c r="B99" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
         <v>311</v>
@@ -4718,19 +4646,19 @@
         <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03267973856209151</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="H99" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I99" t="n">
         <v>33</v>
       </c>
       <c r="J99" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4738,7 +4666,7 @@
         <v>313</v>
       </c>
       <c r="B100" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C100" t="s">
         <v>314</v>
@@ -4747,16 +4675,16 @@
         <v>315</v>
       </c>
       <c r="E100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G100" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="H100" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I100" t="n">
         <v>33</v>
@@ -4770,7 +4698,7 @@
         <v>316</v>
       </c>
       <c r="B101" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
         <v>317</v>
@@ -4779,22 +4707,22 @@
         <v>318</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F101" t="n">
-        <v>219</v>
+        <v>466</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0319634703196347</v>
+        <v>0.02360515021459228</v>
       </c>
       <c r="H101" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I101" t="n">
         <v>33</v>
       </c>
       <c r="J101" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4802,7 +4730,7 @@
         <v>319</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C102" t="s">
         <v>320</v>
@@ -4814,13 +4742,13 @@
         <v>8</v>
       </c>
       <c r="F102" t="n">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03755868544600939</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="H102" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I102" t="n">
         <v>33</v>
@@ -4834,7 +4762,7 @@
         <v>322</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C103" t="s">
         <v>323</v>
@@ -4843,16 +4771,16 @@
         <v>324</v>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F103" t="n">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02649006622516556</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="H103" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I103" t="n">
         <v>33</v>
@@ -4866,7 +4794,7 @@
         <v>325</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
         <v>326</v>
@@ -4875,22 +4803,22 @@
         <v>327</v>
       </c>
       <c r="E104" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F104" t="n">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="G104" t="n">
-        <v>0.09465020576131687</v>
+        <v>0.0625</v>
       </c>
       <c r="H104" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I104" t="n">
         <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4898,7 +4826,7 @@
         <v>328</v>
       </c>
       <c r="B105" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C105" t="s">
         <v>329</v>
@@ -4907,22 +4835,22 @@
         <v>330</v>
       </c>
       <c r="E105" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F105" t="n">
-        <v>151</v>
+        <v>442</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03311258278145696</v>
+        <v>0.03619909502262444</v>
       </c>
       <c r="H105" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I105" t="n">
         <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4930,7 +4858,7 @@
         <v>331</v>
       </c>
       <c r="B106" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C106" t="s">
         <v>332</v>
@@ -4939,16 +4867,16 @@
         <v>333</v>
       </c>
       <c r="E106" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F106" t="n">
-        <v>119</v>
+        <v>356</v>
       </c>
       <c r="G106" t="n">
-        <v>0.05042016806722689</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="H106" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I106" t="n">
         <v>33</v>
@@ -4962,7 +4890,7 @@
         <v>334</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C107" t="s">
         <v>335</v>
@@ -4971,22 +4899,22 @@
         <v>336</v>
       </c>
       <c r="E107" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
-        <v>655</v>
+        <v>147</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03053435114503817</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="H107" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I107" t="n">
         <v>33</v>
       </c>
       <c r="J107" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4994,7 +4922,7 @@
         <v>337</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
         <v>338</v>
@@ -5003,16 +4931,16 @@
         <v>339</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F108" t="n">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03125</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="H108" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I108" t="n">
         <v>33</v>
@@ -5026,7 +4954,7 @@
         <v>340</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C109" t="s">
         <v>341</v>
@@ -5035,22 +4963,22 @@
         <v>342</v>
       </c>
       <c r="E109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="H109" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I109" t="n">
         <v>33</v>
       </c>
       <c r="J109" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -5058,124 +4986,124 @@
         <v>343</v>
       </c>
       <c r="B110" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="C110" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D110" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="C111" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D111" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E111" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>410</v>
+        <v>51</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03658536585365853</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="C112" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D112" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E112" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F112" t="n">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="G112" t="n">
-        <v>0.05015673981191222</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="H112" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="C113" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D113" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>49</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
         <v>7</v>
-      </c>
-      <c r="F113" t="n">
-        <v>100</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>29</v>
-      </c>
-      <c r="I113" t="n">
-        <v>33</v>
       </c>
       <c r="J113" t="s">
         <v>17</v>
@@ -5183,31 +5111,31 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B114" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="C114" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D114" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E114" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F114" t="n">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="G114" t="n">
-        <v>0.06198347107438017</v>
+        <v>0.0375</v>
       </c>
       <c r="H114" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="J114" t="s">
         <v>17</v>
@@ -5215,31 +5143,31 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="C115" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D115" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E115" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F115" t="n">
-        <v>255</v>
+        <v>56</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08235294117647059</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="H115" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I115" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="J115" t="s">
         <v>17</v>
@@ -5247,31 +5175,31 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B116" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C116" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F116" t="n">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="G116" t="n">
-        <v>0.01507537688442211</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J116" t="s">
         <v>13</v>
@@ -5279,31 +5207,31 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B117" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C117" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D117" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0273972602739726</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J117" t="s">
         <v>13</v>
@@ -5311,42 +5239,42 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B118" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C118" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E118" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
-        <v>603</v>
+        <v>102</v>
       </c>
       <c r="G118" t="n">
-        <v>0.06301824212271974</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J118" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B119" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C119" t="s">
         <v>373</v>
@@ -5355,277 +5283,21 @@
         <v>374</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B120" t="s">
-        <v>372</v>
-      </c>
-      <c r="C120" t="s">
-        <v>376</v>
-      </c>
-      <c r="D120" t="s">
-        <v>377</v>
-      </c>
-      <c r="E120" t="n">
-        <v>2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>60</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="H120" t="n">
-        <v>8</v>
-      </c>
-      <c r="I120" t="n">
-        <v>9</v>
-      </c>
-      <c r="J120" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B121" t="s">
-        <v>372</v>
-      </c>
-      <c r="C121" t="s">
-        <v>379</v>
-      </c>
-      <c r="D121" t="s">
-        <v>380</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>95</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.02105263157894737</v>
-      </c>
-      <c r="H121" t="n">
-        <v>5</v>
-      </c>
-      <c r="I121" t="n">
-        <v>9</v>
-      </c>
-      <c r="J121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B122" t="s">
-        <v>372</v>
-      </c>
-      <c r="C122" t="s">
-        <v>382</v>
-      </c>
-      <c r="D122" t="s">
-        <v>383</v>
-      </c>
-      <c r="E122" t="n">
-        <v>3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>117</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="H122" t="n">
-        <v>6</v>
-      </c>
-      <c r="I122" t="n">
-        <v>9</v>
-      </c>
-      <c r="J122" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B123" t="s">
-        <v>372</v>
-      </c>
-      <c r="C123" t="s">
-        <v>385</v>
-      </c>
-      <c r="D123" t="s">
-        <v>386</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>40</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>9</v>
-      </c>
-      <c r="J123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B124" t="s">
-        <v>372</v>
-      </c>
-      <c r="C124" t="s">
-        <v>388</v>
-      </c>
-      <c r="D124" t="s">
-        <v>389</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>72</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.01388888888888889</v>
-      </c>
-      <c r="H124" t="n">
-        <v>4</v>
-      </c>
-      <c r="I124" t="n">
-        <v>9</v>
-      </c>
-      <c r="J124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B125" t="s">
-        <v>372</v>
-      </c>
-      <c r="C125" t="s">
-        <v>391</v>
-      </c>
-      <c r="D125" t="s">
-        <v>392</v>
-      </c>
-      <c r="E125" t="n">
-        <v>2</v>
-      </c>
-      <c r="F125" t="n">
-        <v>31</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="H125" t="n">
-        <v>9</v>
-      </c>
-      <c r="I125" t="n">
-        <v>9</v>
-      </c>
-      <c r="J125" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B126" t="s">
-        <v>372</v>
-      </c>
-      <c r="C126" t="s">
-        <v>394</v>
-      </c>
-      <c r="D126" t="s">
-        <v>395</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>34</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>3</v>
-      </c>
-      <c r="I126" t="n">
-        <v>9</v>
-      </c>
-      <c r="J126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B127" t="s">
-        <v>372</v>
-      </c>
-      <c r="C127" t="s">
-        <v>397</v>
-      </c>
-      <c r="D127" t="s">
-        <v>398</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2</v>
-      </c>
-      <c r="F127" t="n">
-        <v>66</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="H127" t="n">
-        <v>7</v>
-      </c>
-      <c r="I127" t="n">
-        <v>9</v>
-      </c>
-      <c r="J127" t="s">
         <v>17</v>
       </c>
     </row>
